--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,12 @@
     <sheet name="user_group" sheetId="2" r:id="rId3"/>
     <sheet name="function" sheetId="5" r:id="rId4"/>
     <sheet name="permission" sheetId="4" r:id="rId5"/>
+    <sheet name="room_type" sheetId="6" r:id="rId6"/>
+    <sheet name="room" sheetId="7" r:id="rId7"/>
+    <sheet name="status" sheetId="8" r:id="rId8"/>
+    <sheet name="reservation" sheetId="9" r:id="rId9"/>
+    <sheet name="reservation_detail" sheetId="10" r:id="rId10"/>
+    <sheet name="guest" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="159">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -260,13 +266,268 @@
   </si>
   <si>
     <t>K0002/K0002_4</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>room_number</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status_name</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>check_in</t>
+  </si>
+  <si>
+    <t>check_out</t>
+  </si>
+  <si>
+    <t>number_of_room</t>
+  </si>
+  <si>
+    <t>number_of_adult</t>
+  </si>
+  <si>
+    <t>number_of_children</t>
+  </si>
+  <si>
+    <t>create_ymd</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>guest_id</t>
+  </si>
+  <si>
+    <t>interger</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>room_type_id</t>
+  </si>
+  <si>
+    <t>numeric(11,2)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>status_type</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>varchar(225)</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>identity_card</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>company_phone</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>Vu Tran Hoang</t>
+  </si>
+  <si>
+    <t>Nguyen Viet Hung</t>
+  </si>
+  <si>
+    <t>Dang Cong Son</t>
+  </si>
+  <si>
+    <t>Tran Ba Quyen</t>
+  </si>
+  <si>
+    <t>Dang Duc Manh</t>
+  </si>
+  <si>
+    <t>Do Hong Khoi</t>
+  </si>
+  <si>
+    <t>Tran Dang Loi</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>RS01</t>
+  </si>
+  <si>
+    <t>RS02</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RO01</t>
+  </si>
+  <si>
+    <t>RS03</t>
+  </si>
+  <si>
+    <t>RO02</t>
+  </si>
+  <si>
+    <t>RO03</t>
+  </si>
+  <si>
+    <t>RO04</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>Single room</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Grand Deluxe</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Club Suite</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>RT01</t>
+  </si>
+  <si>
+    <t>RT02</t>
+  </si>
+  <si>
+    <t>RT03</t>
+  </si>
+  <si>
+    <t>RT04</t>
+  </si>
+  <si>
+    <t>RT05</t>
+  </si>
+  <si>
+    <t>RT06</t>
+  </si>
+  <si>
+    <t>RT07</t>
+  </si>
+  <si>
+    <t>RO001</t>
+  </si>
+  <si>
+    <t>RO002</t>
+  </si>
+  <si>
+    <t>RO003</t>
+  </si>
+  <si>
+    <t>RO004</t>
+  </si>
+  <si>
+    <t>RO005</t>
+  </si>
+  <si>
+    <t>RO006</t>
+  </si>
+  <si>
+    <t>RO007</t>
+  </si>
+  <si>
+    <t>In use</t>
+  </si>
+  <si>
+    <t>On processing</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Not in use</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Fixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +647,62 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,10 +752,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,9 +810,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,6 +1515,496 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
+        <v>INSERT INTO tbl_reservation_detail(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> reservation_id,room_id,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('1','RO001','');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
+        <v>1','RO001','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO002','');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
+        <v>2','RO002','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO003','');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>3','RO003','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO004','');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>4','RO004','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO005','');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>5','RO005','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO006','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>6','RO006','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO007','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>7','RO007','');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1">
+        <v>126491311</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1">
+        <v>841318413</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1">
+        <v>511974121</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1">
+        <v>648413161</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1">
+        <v>884131988</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1">
+        <v>651987841</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1">
+        <v>484216848</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_reservation("</f>
+        <v>INSERT INTO tbl_reservation(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('1','Vu Tran Hoang','','','','','','Vietnam');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','Vu Tran Hoang','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('2','Nguyen Viet Hung','','','','','','Vietnam');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>2','Nguyen Viet Hung','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('3','Dang Cong Son','','','','','','Vietnam');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"');"</f>
+        <v>3','Dang Cong Son','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('4','Tran Ba Quyen','','','','','','Vietnam');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"');"</f>
+        <v>4','Tran Ba Quyen','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('5','Dang Duc Manh','','','','','','Vietnam');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"');"</f>
+        <v>5','Dang Duc Manh','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('6','Do Hong Khoi','','','','','','Vietnam');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"');"</f>
+        <v>6','Do Hong Khoi','','','','','','Vietnam');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('7','Tran Dang Loi','','','','','','Vietnam');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"');"</f>
+        <v>7','Tran Dang Loi','','','','','','Vietnam');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I20"/>
@@ -2066,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2441,4 +3285,979 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="21" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_room_type("</f>
+        <v>INSERT INTO tbl_room_type(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="21" t="str">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_type_id,type_name,description,price) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','','');</v>
+      </c>
+      <c r="C20" s="21" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
+        <v>RT01','Single room','','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="21" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','','');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
+        <v>RT02','Luxury','','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','','');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RT03','Club','','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','','');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RT04','Grand Deluxe','','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','','');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RT05','Royal','','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RT06','Club Suite','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RT07','Family','','');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="6" width="13" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="30"/>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="31"/>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="32"/>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="32"/>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="32"/>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="32"/>
+      <c r="C8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="32"/>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="32"/>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
+        <v>INSERT INTO tbl_room(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO001','RT01','1','RO01','101');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
+        <v>','RO001','RT01','1','RO01','101');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO002','RT01','1','RO01','102');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <v>','RO002','RT01','1','RO01','102');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C22</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO003','RT03','1','RO02','103');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"');"</f>
+        <v>','RO003','RT03','1','RO02','103');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C23</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO004','RT04','2','RO02','201');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"');"</f>
+        <v>','RO004','RT04','2','RO02','201');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C24</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO005','RT05','2','RO02','202');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"');"</f>
+        <v>','RO005','RT05','2','RO02','202');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C25</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO006','RT05','3','RO03','301');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"');"</f>
+        <v>','RO006','RT05','3','RO03','301');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C26</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO007','RT07','4','RO03','302');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"');"</f>
+        <v>','RO007','RT07','4','RO03','302');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_status("</f>
+        <v>INSERT INTO tbl_status(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> status_id,status_type,status_name,description) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','Waiting,');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;","&amp;E5&amp;"');"</f>
+        <v>RS01','RS','Waiting,');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing,');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f t="shared" ref="C21:C25" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;","&amp;E6&amp;"');"</f>
+        <v>RS02','RS','On processing,');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Cancelled,');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS03','RS','Cancelled,');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use,');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO01','RO','Not in use,');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use,');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO02','RO','In use,');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning,');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO03','RO','Cleaning,');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Fixing,');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;","&amp;E11&amp;"');"</f>
+        <v>RO04','RO','Fixing,');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_reservation("</f>
+        <v>INSERT INTO tbl_reservation(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('1','RS01','','','','','','');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','RS01','','','','','','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('2','RS01','','','','','','');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>2','RS01','','','','','','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('3','RS01','','','','','','');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"');"</f>
+        <v>3','RS01','','','','','','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('4','RS02','','','','','','');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"');"</f>
+        <v>4','RS02','','','','','','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('5','RS03','','','','','','');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"');"</f>
+        <v>5','RS03','','','','','','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('6','RS03','','','','','','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"');"</f>
+        <v>6','RS03','','','','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('7','RS03','','','','','','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"');"</f>
+        <v>7','RS03','','','','','','');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1936,67 +1936,67 @@
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('1','Vu Tran Hoang','','','','','','Vietnam');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <f t="shared" ref="C20:C26" si="0">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
         <v>1','Vu Tran Hoang','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('2','Nguyen Viet Hung','','','','','','Vietnam');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>2','Nguyen Viet Hung','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('3','Dang Cong Son','','','','','','Vietnam');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>3','Dang Cong Son','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('4','Tran Ba Quyen','','','','','','Vietnam');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>4','Tran Ba Quyen','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('5','Dang Duc Manh','','','','','','Vietnam');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>5','Dang Duc Manh','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('6','Do Hong Khoi','','','','','','Vietnam');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>6','Do Hong Khoi','','','','','','Vietnam');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('7','Tran Dang Loi','','','','','','Vietnam');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>7','Tran Dang Loi','','','','','','Vietnam');</v>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3341,7 +3341,9 @@
         <v>132</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
@@ -3351,7 +3353,9 @@
         <v>131</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
@@ -3361,7 +3365,9 @@
         <v>133</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
@@ -3371,7 +3377,9 @@
         <v>134</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
@@ -3381,7 +3389,9 @@
         <v>135</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -3391,7 +3401,9 @@
         <v>136</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
@@ -3401,7 +3413,9 @@
         <v>137</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="21" t="str">
@@ -3418,71 +3432,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','','100');</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RT01','Single room','','');</v>
+        <v>RT01','Single room','','100');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','','100');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RT02','Luxury','','');</v>
+        <v>RT02','Luxury','','100');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','','100');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT03','Club','','');</v>
+        <v>RT03','Club','','100');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','','100');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT04','Grand Deluxe','','');</v>
+        <v>RT04','Grand Deluxe','','100');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','','100');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT05','Royal','','');</v>
+        <v>RT05','Royal','','100');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','','100');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT06','Club Suite','','');</v>
+        <v>RT06','Club Suite','','100');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','','');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','','100');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT07','Family','','');</v>
+        <v>RT07','Family','','100');</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3509,7 @@
   <dimension ref="A3:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3685,71 +3699,71 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C20</f>
+        <f t="shared" ref="A20:A26" si="0">$C$18&amp;$C$19&amp;C20</f>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO001','RT01','1','RO01','101');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
+        <f t="shared" ref="C20:C26" si="1">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
         <v>','RO001','RT01','1','RO01','101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO002','RT01','1','RO01','102');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO002','RT01','1','RO01','102');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO003','RT03','1','RO02','103');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO003','RT03','1','RO02','103');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO004','RT04','2','RO02','201');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO004','RT04','2','RO02','201');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO005','RT05','2','RO02','202');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO005','RT05','2','RO02','202');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO006','RT05','3','RO03','301');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO006','RT05','3','RO03','301');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO007','RT07','4','RO03','302');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>','RO007','RT07','4','RO03','302');</v>
       </c>
     </row>
@@ -3764,7 +3778,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3980,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4066,12 +4080,22 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1">
+        <v>20170102</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20170104</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>20170101</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="1">
@@ -4083,12 +4107,22 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1">
+        <v>20170102</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>20170101</v>
+      </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="1">
@@ -4100,12 +4134,22 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20170105</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>20170101</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1">
@@ -4117,12 +4161,22 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1">
+        <v>20170103</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20170106</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>20170101</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="1">
@@ -4134,12 +4188,22 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="1">
+        <v>20170506</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20170512</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>20170430</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="1">
@@ -4151,12 +4215,22 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="1">
+        <v>20170606</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20170620</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>20170520</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="1">
@@ -4168,12 +4242,22 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="1">
+        <v>20170506</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20170603</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>20170430</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="23" t="str">
@@ -4190,71 +4274,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('1','RS01','','','','','','');</v>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('1','RS01','20170102','20170104','1','2','','20170101');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','RS01','','','','','','');</v>
+        <f t="shared" ref="C20:C26" si="0">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','RS01','20170102','20170104','1','2','','20170101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('2','RS01','','','','','','');</v>
+        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('2','RS01','20170102','20170103','2','3','','20170101');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>2','RS01','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>2','RS01','20170102','20170103','2','3','','20170101');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('3','RS01','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('3','RS01','20170103','20170105','2','2','','20170101');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"');"</f>
-        <v>3','RS01','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>3','RS01','20170103','20170105','2','2','','20170101');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('4','RS02','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('4','RS02','20170103','20170106','3','3','','20170101');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"');"</f>
-        <v>4','RS02','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>4','RS02','20170103','20170106','3','3','','20170101');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('5','RS03','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('5','RS03','20170506','20170512','1','1','','20170430');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"');"</f>
-        <v>5','RS03','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>5','RS03','20170506','20170512','1','1','','20170430');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('6','RS03','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('6','RS03','20170606','20170620','2','2','','20170520');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"');"</f>
-        <v>6','RS03','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>6','RS03','20170606','20170620','2','2','','20170520');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('7','RS03','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('7','RS03','20170506','20170603','1','2','','20170430');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"');"</f>
-        <v>7','RS03','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>7','RS03','20170506','20170603','1','2','','20170430');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="163">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -388,21 +388,6 @@
     <t>varchar(12)</t>
   </si>
   <si>
-    <t>Vu Tran Hoang</t>
-  </si>
-  <si>
-    <t>Nguyen Viet Hung</t>
-  </si>
-  <si>
-    <t>Dang Cong Son</t>
-  </si>
-  <si>
-    <t>Tran Ba Quyen</t>
-  </si>
-  <si>
-    <t>Dang Duc Manh</t>
-  </si>
-  <si>
     <t>Do Hong Khoi</t>
   </si>
   <si>
@@ -521,13 +506,40 @@
   </si>
   <si>
     <t>Fixing</t>
+  </si>
+  <si>
+    <t>hung@gmail</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>Hoa Lac</t>
+  </si>
+  <si>
+    <t>cho hut thuoc</t>
+  </si>
+  <si>
+    <t>Vũ Trần Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Hưng</t>
+  </si>
+  <si>
+    <t>Đặng Công Sơn</t>
+  </si>
+  <si>
+    <t>Trân Bá Quyền</t>
+  </si>
+  <si>
+    <t>Đang Đức Mạnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +713,14 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -752,11 +772,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,8 +862,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
@@ -1517,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D26"/>
+  <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1556,151 +1579,229 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20170709</v>
+      </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="23" t="str">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
         <v>INSERT INTO tbl_reservation_detail(</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="23" t="str">
+    <row r="22" spans="1:3">
+      <c r="C22" s="23" t="str">
         <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;") VALUES('"</f>
         <v xml:space="preserve"> reservation_id,room_id,create_ymd) VALUES('</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('1','RO001','');</v>
-      </c>
-      <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>1','RO001','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO002','');</v>
-      </c>
-      <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
-        <v>2','RO002','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO003','');</v>
-      </c>
-      <c r="C22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO003','');</v>
-      </c>
-    </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO004','');</v>
+        <f>$C$21&amp;$C$22&amp;C23</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('17','RO001','20170709');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>4','RO004','');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
+        <v>17','RO001','20170709');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO005','');</v>
+        <f t="shared" ref="A24:A30" si="0">$C$21&amp;$C$22&amp;C24</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO002','20170709');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>5','RO005','');</v>
+        <f t="shared" ref="C24:C32" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
+        <v>18','RO002','20170709');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO006','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO007','20170709');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO006','');</v>
+        <v>18','RO007','20170709');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO007','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('19','RO003','20170709');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO007','');</v>
+        <v>19','RO003','20170709');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO004','20170709');</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>20','RO004','20170709');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO005','20170709');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>20','RO005','20170709');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO006','20170709');</v>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>20','RO006','20170709');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="23" t="str">
+        <f>$C$21&amp;$C$22&amp;C30</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('21','RO005','20170709');</v>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>21','RO005','20170709');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="23" t="str">
+        <f>$C$21&amp;$C$22&amp;C31</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('22','RO006','20170709');</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>22','RO006','20170709');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23" t="str">
+        <f t="shared" ref="A32" si="2">$C$21&amp;$C$22&amp;C32</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('23','RO007','20170709');</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>23','RO007','20170709');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1709,7 +1810,7 @@
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1786,221 +1887,281 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1">
         <v>651987841</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1">
         <v>484216848</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="E11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="1">
+        <v>123456566</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="23" t="str">
-        <f xml:space="preserve"> "INSERT INTO tbl_reservation("</f>
-        <v>INSERT INTO tbl_reservation(</v>
+        <f xml:space="preserve"> "INSERT INTO tbl_guest("</f>
+        <v>INSERT INTO tbl_guest(</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('</v>
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> name,phone,mail,identity_card,company,address,company_phone,country) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('1','Vu Tran Hoang','','','','','','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Vũ Trần Hoàng','126491311','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f t="shared" ref="C20:C26" si="0">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','Vu Tran Hoang','','','','','','Vietnam');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>Vũ Trần Hoàng','126491311','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('2','Nguyen Viet Hung','','','','','','Vietnam');</v>
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Nguyễn Việt Hưng','841318413','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2','Nguyen Viet Hung','','','','','','Vietnam');</v>
+        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>Nguyễn Việt Hưng','841318413','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('3','Dang Cong Son','','','','','','Vietnam');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Đặng Công Sơn','511974121','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>3','Dang Cong Son','','','','','','Vietnam');</v>
+        <f t="shared" si="1"/>
+        <v>Đặng Công Sơn','511974121','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('4','Tran Ba Quyen','','','','','','Vietnam');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Trân Bá Quyền','648413161','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>4','Tran Ba Quyen','','','','','','Vietnam');</v>
+        <f t="shared" si="1"/>
+        <v>Trân Bá Quyền','648413161','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('5','Dang Duc Manh','','','','','','Vietnam');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Đang Đức Mạnh','884131988','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>5','Dang Duc Manh','','','','','','Vietnam');</v>
+        <f t="shared" si="1"/>
+        <v>Đang Đức Mạnh','884131988','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('6','Do Hong Khoi','','','','','','Vietnam');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Do Hong Khoi','651987841','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>6','Do Hong Khoi','','','','','','Vietnam');</v>
+        <f t="shared" si="1"/>
+        <v>Do Hong Khoi','651987841','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('7','Tran Dang Loi','','','','','','Vietnam');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Tran Dang Loi','484216848','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>7','Tran Dang Loi','','','','','','Vietnam');</v>
+        <f t="shared" si="1"/>
+        <v>Tran Dang Loi','484216848','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6:E11" r:id="rId2" display="hung@gmail"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3292,7 +3453,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3335,84 +3496,98 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
@@ -3432,71 +3607,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','cho hut thuoc','100');</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RT01','Single room','','100');</v>
+        <v>RT01','Single room','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','cho hut thuoc','100');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RT02','Luxury','','100');</v>
+        <v>RT02','Luxury','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','cho hut thuoc','100');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT03','Club','','100');</v>
+        <v>RT03','Club','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','cho hut thuoc','100');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT04','Grand Deluxe','','100');</v>
+        <v>RT04','Grand Deluxe','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','cho hut thuoc','100');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT05','Royal','','100');</v>
+        <v>RT05','Royal','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','cho hut thuoc','100');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT06','Club Suite','','100');</v>
+        <v>RT06','Club Suite','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','cho hut thuoc','100');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT07','Family','','100');</v>
+        <v>RT07','Family','cho hut thuoc','100');</v>
       </c>
     </row>
   </sheetData>
@@ -3562,16 +3737,16 @@
     <row r="5" spans="2:7">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1">
         <v>101</v>
@@ -3580,16 +3755,16 @@
     <row r="6" spans="2:7">
       <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1">
         <v>102</v>
@@ -3598,16 +3773,16 @@
     <row r="7" spans="2:7">
       <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1">
         <v>103</v>
@@ -3616,16 +3791,16 @@
     <row r="8" spans="2:7">
       <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1">
         <v>201</v>
@@ -3634,16 +3809,16 @@
     <row r="9" spans="2:7">
       <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1">
         <v>202</v>
@@ -3652,16 +3827,16 @@
     <row r="10" spans="2:7">
       <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1">
         <v>301</v>
@@ -3670,16 +3845,16 @@
     <row r="11" spans="2:7">
       <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1">
         <v>302</v>
@@ -3700,71 +3875,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f t="shared" ref="A20:A26" si="0">$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO001','RT01','1','RO01','101');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f t="shared" ref="C20:C26" si="1">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
-        <v>','RO001','RT01','1','RO01','101');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
+        <v>RO001','RT01','1','RO01','101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO002','RT01','1','RO01','102');</v>
+        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO002','RT01','1','RO01','102');</v>
+        <f t="shared" ref="C21:C26" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <v>RO002','RT01','1','RO01','102');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO003','RT03','1','RO02','103');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT03','1','RO02','103');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO003','RT03','1','RO02','103');</v>
+        <f t="shared" si="2"/>
+        <v>RO003','RT03','1','RO02','103');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO004','RT04','2','RO02','201');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT04','2','RO02','201');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO004','RT04','2','RO02','201');</v>
+        <f t="shared" si="2"/>
+        <v>RO004','RT04','2','RO02','201');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO005','RT05','2','RO02','202');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT05','2','RO02','202');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO005','RT05','2','RO02','202');</v>
+        <f t="shared" si="2"/>
+        <v>RO005','RT05','2','RO02','202');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO006','RT05','3','RO03','301');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT05','3','RO03','301');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO006','RT05','3','RO03','301');</v>
+        <f t="shared" si="2"/>
+        <v>RO006','RT05','3','RO03','301');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('','RO007','RT07','4','RO03','302');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT07','4','RO03','302');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','RO007','RT07','4','RO03','302');</v>
+        <f t="shared" si="2"/>
+        <v>RO007','RT07','4','RO03','302');</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3953,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3821,85 +3996,85 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3918,71 +4093,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','Waiting,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','Waiting','');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;","&amp;E5&amp;"');"</f>
-        <v>RS01','RS','Waiting,');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
+        <v>RS01','RS','Waiting','');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing','');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C25" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;","&amp;E6&amp;"');"</f>
-        <v>RS02','RS','On processing,');</v>
+        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
+        <v>RS02','RS','On processing','');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Cancelled,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Cancelled','');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','RS','Cancelled,');</v>
+        <v>RS03','RS','Cancelled','');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use','');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO01','RO','Not in use,');</v>
+        <v>RO01','RO','Not in use','');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use','');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO02','RO','In use,');</v>
+        <v>RO02','RO','In use','');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO03','RO','Cleaning,');</v>
+        <v>RO03','RO','Cleaning','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Fixing,');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Fixing','');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;","&amp;E11&amp;"');"</f>
-        <v>RO04','RO','Fixing,');</v>
+        <f t="shared" si="1"/>
+        <v>RO04','RO','Fixing','');</v>
       </c>
     </row>
   </sheetData>
@@ -3994,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4071,14 +4246,12 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>20170102</v>
@@ -4092,20 +4265,20 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="J5" s="1">
         <v>20170101</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>20170102</v>
@@ -4119,20 +4292,20 @@
       <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="1">
         <v>20170101</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>20170103</v>
@@ -4146,20 +4319,20 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="1">
         <v>20170101</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>20170103</v>
@@ -4173,20 +4346,20 @@
       <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="1">
         <v>20170101</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>20170506</v>
@@ -4200,20 +4373,20 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="1">
         <v>20170430</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>20170606</v>
@@ -4227,20 +4400,20 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="1">
         <v>20170520</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>20170506</v>
@@ -4254,7 +4427,9 @@
       <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="1">
         <v>20170430</v>
       </c>
@@ -4267,81 +4442,82 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('</v>
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('1','RS01','20170102','20170104','1','2','','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','22','20170102','20170104','1','2','0','20170101');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f t="shared" ref="C20:C26" si="0">""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','RS01','20170102','20170104','1','2','','20170101');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>RS01','22','20170102','20170104','1','2','0','20170101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('2','RS01','20170102','20170103','2','3','','20170101');</v>
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','23','20170102','20170103','2','3','0','20170101');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2','RS01','20170102','20170103','2','3','','20170101');</v>
+        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>RS01','23','20170102','20170103','2','3','0','20170101');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('3','RS01','20170103','20170105','2','2','','20170101');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','2','2','0','20170101');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>3','RS01','20170103','20170105','2','2','','20170101');</v>
+        <f t="shared" si="1"/>
+        <v>RS01','24','20170103','20170105','2','2','0','20170101');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('4','RS02','20170103','20170106','3','3','','20170101');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','25','20170103','20170106','3','3','0','20170101');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>4','RS02','20170103','20170106','3','3','','20170101');</v>
+        <f t="shared" si="1"/>
+        <v>RS02','25','20170103','20170106','3','3','0','20170101');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('5','RS03','20170506','20170512','1','1','','20170430');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>5','RS03','20170506','20170512','1','1','','20170430');</v>
+        <f t="shared" si="1"/>
+        <v>RS03','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('6','RS03','20170606','20170620','2','2','','20170520');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>6','RS03','20170606','20170620','2','2','','20170520');</v>
+        <f t="shared" si="1"/>
+        <v>RS03','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_reservation( id,status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('7','RS03','20170506','20170603','1','2','','20170430');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','28','20170506','20170603','1','2','0','20170430');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>7','RS03','20170506','20170603','1','2','','20170430');</v>
+        <f t="shared" si="1"/>
+        <v>RS03','28','20170506','20170603','1','2','0','20170430');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="165">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Đang Đức Mạnh</t>
+  </si>
+  <si>
+    <t>RO008</t>
+  </si>
+  <si>
+    <t>RO009</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -771,13 +777,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,6 +880,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1542,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1711,7 +1730,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
-        <f t="shared" ref="A24:A30" si="0">$C$21&amp;$C$22&amp;C24</f>
+        <f t="shared" ref="A24:A29" si="0">$C$21&amp;$C$22&amp;C24</f>
         <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO002','20170709');</v>
       </c>
       <c r="C24" s="23" t="str">
@@ -3681,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G26"/>
+  <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3848,16 +3867,50 @@
         <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="1">
         <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="36">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="35">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3874,7 +3927,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
-        <f t="shared" ref="A20:A26" si="0">$C$18&amp;$C$19&amp;C20</f>
+        <f t="shared" ref="A20" si="0">$C$18&amp;$C$19&amp;C20</f>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
       </c>
       <c r="C20" s="23" t="str">
@@ -3884,11 +3937,11 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="1">$C$18&amp;$C$19&amp;C21</f>
+        <f t="shared" ref="A21:A27" si="1">$C$18&amp;$C$19&amp;C21</f>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <f t="shared" ref="C21:C28" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
         <v>RO002','RT01','1','RO01','102');</v>
       </c>
     </row>
@@ -3935,11 +3988,31 @@
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT07','4','RO03','302');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT05','3','RO03','302');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO007','RT07','4','RO03','302');</v>
+        <v>RO007','RT05','3','RO03','302');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT05','2','RO01','203');</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO008','RT05','2','RO01','203');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="str">
+        <f t="shared" ref="A28" si="3">$C$18&amp;$C$19&amp;C28</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT05','2','RO01','204');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO009','RT05','2','RO01','204');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,7 +601,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -706,7 +706,7 @@
       <i/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -723,7 +723,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1170,21 +1170,21 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
@@ -1561,16 +1561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="23" customWidth="1"/>
     <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>140</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>141</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>146</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>144</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>145</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>144</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>145</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>146</v>
@@ -1721,101 +1721,101 @@
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C23</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('17','RO001','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO001','20170709');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>17','RO001','20170709');</v>
+        <v>2','RO001','20170709');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A29" si="0">$C$21&amp;$C$22&amp;C24</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO002','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO002','20170709');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" ref="C24:C32" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
-        <v>18','RO002','20170709');</v>
+        <v>3','RO002','20170709');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO007','20170709');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>18','RO007','20170709');</v>
+        <v>3','RO007','20170709');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('19','RO003','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO003','20170709');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>19','RO003','20170709');</v>
+        <v>4','RO003','20170709');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO004','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO004','20170709');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO004','20170709');</v>
+        <v>5','RO004','20170709');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO005','20170709');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO005','20170709');</v>
+        <v>5','RO005','20170709');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO006','20170709');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO006','20170709');</v>
+        <v>5','RO006','20170709');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C30</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('21','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO005','20170709');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>21','RO005','20170709');</v>
+        <v>6','RO005','20170709');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('22','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO006','20170709');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>22','RO006','20170709');</v>
+        <v>7','RO006','20170709');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32" si="2">$C$21&amp;$C$22&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('23','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO007','20170709');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>23','RO007','20170709');</v>
+        <v>7','RO007','20170709');</v>
       </c>
     </row>
   </sheetData>
@@ -1832,18 +1832,18 @@
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="23" customWidth="1"/>
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -2193,17 +2193,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -2465,17 +2465,17 @@
       <selection activeCell="F5" sqref="F5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -2754,17 +2754,17 @@
       <selection activeCell="G5" sqref="G5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -3094,16 +3094,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -3471,17 +3471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -3702,18 +3702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
+    <col min="3" max="4" width="12.375" style="23" customWidth="1"/>
     <col min="5" max="5" width="9" style="23"/>
     <col min="6" max="6" width="13" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="23" customWidth="1"/>
     <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4025,17 +4025,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="23" customWidth="1"/>
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4242,21 +4242,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
     <col min="3" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="23" customWidth="1"/>
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4324,7 +4324,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>20170102</v>
@@ -4351,7 +4351,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>20170102</v>
@@ -4378,7 +4378,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>20170103</v>
@@ -4405,7 +4405,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <v>20170103</v>
@@ -4432,7 +4432,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <v>20170506</v>
@@ -4459,7 +4459,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>20170606</v>
@@ -4486,7 +4486,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>20170506</v>
@@ -4522,71 +4522,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','22','20170102','20170104','1','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','1','20170102','20170104','1','2','0','20170101');</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','22','20170102','20170104','1','2','0','20170101');</v>
+        <v>RS01','1','20170102','20170104','1','2','0','20170101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','23','20170102','20170103','2','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','2','20170102','20170103','2','3','0','20170101');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','23','20170102','20170103','2','3','0','20170101');</v>
+        <v>RS01','2','20170102','20170103','2','3','0','20170101');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','2','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','3','20170103','20170105','2','2','0','20170101');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','24','20170103','20170105','2','2','0','20170101');</v>
+        <v>RS01','3','20170103','20170105','2','2','0','20170101');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','25','20170103','20170106','3','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','4','20170103','20170106','3','3','0','20170101');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS02','25','20170103','20170106','3','3','0','20170101');</v>
+        <v>RS02','4','20170103','20170106','3','3','0','20170101');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','5','20170506','20170512','1','1','0','20170430');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>RS03','5','20170506','20170512','1','1','0','20170430');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','6','20170606','20170620','2','2','0','20170520');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>RS03','6','20170606','20170620','2','2','0','20170520');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','28','20170506','20170603','1','2','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','7','20170506','20170603','1','2','0','20170430');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','28','20170506','20170603','1','2','0','20170430');</v>
+        <v>RS03','7','20170506','20170603','1','2','0','20170430');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,7 +601,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -706,7 +706,7 @@
       <i/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -723,7 +723,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1170,21 +1170,21 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
@@ -1561,16 +1561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="23" customWidth="1"/>
     <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>140</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>141</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>146</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>144</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>145</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>144</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>145</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>146</v>
@@ -1721,101 +1721,101 @@
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C23</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO001','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('17','RO001','20170709');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>2','RO001','20170709');</v>
+        <v>17','RO001','20170709');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A29" si="0">$C$21&amp;$C$22&amp;C24</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO002','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO002','20170709');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" ref="C24:C32" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
-        <v>3','RO002','20170709');</v>
+        <v>18','RO002','20170709');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO007','20170709');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO007','20170709');</v>
+        <v>18','RO007','20170709');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO003','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('19','RO003','20170709');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','RO003','20170709');</v>
+        <v>19','RO003','20170709');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO004','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO004','20170709');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO004','20170709');</v>
+        <v>20','RO004','20170709');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO005','20170709');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO005','20170709');</v>
+        <v>20','RO005','20170709');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO006','20170709');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO006','20170709');</v>
+        <v>20','RO006','20170709');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C30</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('21','RO005','20170709');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO005','20170709');</v>
+        <v>21','RO005','20170709');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('22','RO006','20170709');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO006','20170709');</v>
+        <v>22','RO006','20170709');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32" si="2">$C$21&amp;$C$22&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('23','RO007','20170709');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO007','20170709');</v>
+        <v>23','RO007','20170709');</v>
       </c>
     </row>
   </sheetData>
@@ -1832,18 +1832,18 @@
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -2193,17 +2193,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -2465,17 +2465,17 @@
       <selection activeCell="F5" sqref="F5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -2754,17 +2754,17 @@
       <selection activeCell="G5" sqref="G5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -3094,16 +3094,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -3471,17 +3471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -3702,18 +3702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
-    <col min="3" max="4" width="12.375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
     <col min="5" max="5" width="9" style="23"/>
     <col min="6" max="6" width="13" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
     <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4025,17 +4025,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="23" customWidth="1"/>
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4242,21 +4242,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
     <col min="3" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="10.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4324,7 +4324,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>20170102</v>
@@ -4351,7 +4351,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>20170102</v>
@@ -4378,7 +4378,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>20170103</v>
@@ -4405,7 +4405,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>20170103</v>
@@ -4432,7 +4432,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>20170506</v>
@@ -4459,7 +4459,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>20170606</v>
@@ -4486,7 +4486,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>20170506</v>
@@ -4522,71 +4522,71 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','1','20170102','20170104','1','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','22','20170102','20170104','1','2','0','20170101');</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','1','20170102','20170104','1','2','0','20170101');</v>
+        <v>RS01','22','20170102','20170104','1','2','0','20170101');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','2','20170102','20170103','2','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','23','20170102','20170103','2','3','0','20170101');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','2','20170102','20170103','2','3','0','20170101');</v>
+        <v>RS01','23','20170102','20170103','2','3','0','20170101');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','3','20170103','20170105','2','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','2','2','0','20170101');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','3','20170103','20170105','2','2','0','20170101');</v>
+        <v>RS01','24','20170103','20170105','2','2','0','20170101');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','4','20170103','20170106','3','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','25','20170103','20170106','3','3','0','20170101');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS02','4','20170103','20170106','3','3','0','20170101');</v>
+        <v>RS02','25','20170103','20170106','3','3','0','20170101');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','5','20170506','20170512','1','1','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','5','20170506','20170512','1','1','0','20170430');</v>
+        <v>RS03','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','6','20170606','20170620','2','2','0','20170520');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','6','20170606','20170620','2','2','0','20170520');</v>
+        <v>RS03','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','7','20170506','20170603','1','2','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','28','20170506','20170603','1','2','0','20170430');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','7','20170506','20170603','1','2','0','20170430');</v>
+        <v>RS03','28','20170506','20170603','1','2','0','20170430');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="169">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -493,9 +493,6 @@
     <t>On processing</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
@@ -539,6 +536,21 @@
   </si>
   <si>
     <t>RO009</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>RS04</t>
+  </si>
+  <si>
+    <t>RS05</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D32"/>
+  <dimension ref="A3:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1598,7 +1610,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>140</v>
@@ -1609,7 +1621,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>141</v>
@@ -1620,7 +1632,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>146</v>
@@ -1631,7 +1643,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
@@ -1642,7 +1654,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -1653,7 +1665,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>144</v>
@@ -1664,7 +1676,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>145</v>
@@ -1675,10 +1687,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1">
         <v>20170709</v>
@@ -1686,10 +1698,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1">
         <v>20170709</v>
@@ -1697,12 +1709,34 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D14" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="35">
+        <v>6</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20170709</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1">
         <v>20170709</v>
       </c>
     </row>
@@ -1721,101 +1755,121 @@
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C23</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('17','RO001','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('1','RO001','20170709');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>17','RO001','20170709');</v>
+        <v>1','RO001','20170709');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A29" si="0">$C$21&amp;$C$22&amp;C24</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO002','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO002','20170709');</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f t="shared" ref="C24:C32" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
-        <v>18','RO002','20170709');</v>
+        <f t="shared" ref="C24:C34" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
+        <v>2','RO002','20170709');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('18','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO007','20170709');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>18','RO007','20170709');</v>
+        <v>2','RO007','20170709');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('19','RO003','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO003','20170709');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>19','RO003','20170709');</v>
+        <v>3','RO003','20170709');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO004','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO004','20170709');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO004','20170709');</v>
+        <v>3','RO004','20170709');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO005','20170709');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO005','20170709');</v>
+        <v>3','RO005','20170709');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('20','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO006','20170709');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>20','RO006','20170709');</v>
+        <v>4','RO006','20170709');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C30</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('21','RO005','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO008','20170709');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>21','RO005','20170709');</v>
+        <v>4','RO008','20170709');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="str">
         <f>$C$21&amp;$C$22&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('22','RO006','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO001','20170709');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>22','RO006','20170709');</v>
+        <v>5','RO001','20170709');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32" si="2">$C$21&amp;$C$22&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('23','RO007','20170709');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO007','20170709');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>23','RO007','20170709');</v>
+        <v>6','RO007','20170709');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="str">
+        <f>$C$21&amp;$C$22&amp;C33</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO005','20170709');</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>6','RO005','20170709');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23" t="str">
+        <f t="shared" ref="A34" si="3">$C$21&amp;$C$22&amp;C34</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO006','20170709');</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>7','RO006','20170709');</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
@@ -1908,22 +1962,22 @@
     <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1">
         <v>123456789</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I5" s="1">
         <v>123456566</v>
@@ -1935,22 +1989,22 @@
     <row r="6" spans="2:10">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1">
         <v>123456789</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I6" s="1">
         <v>123456566</v>
@@ -1962,22 +2016,22 @@
     <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1">
         <v>123456789</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I7" s="1">
         <v>123456566</v>
@@ -1989,22 +2043,22 @@
     <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1">
         <v>123456789</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I8" s="1">
         <v>123456566</v>
@@ -2016,22 +2070,22 @@
     <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1">
         <v>123456789</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I9" s="1">
         <v>123456566</v>
@@ -2049,16 +2103,16 @@
         <v>651987841</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>123456789</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I10" s="1">
         <v>123456566</v>
@@ -2076,16 +2130,16 @@
         <v>484216848</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="1">
         <v>123456789</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I11" s="1">
         <v>123456566</v>
@@ -3521,7 +3575,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -3535,7 +3589,7 @@
         <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -3549,7 +3603,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -3563,7 +3617,7 @@
         <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -3577,7 +3631,7 @@
         <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -3591,7 +3645,7 @@
         <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -3605,7 +3659,7 @@
         <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -3702,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3881,7 +3935,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>137</v>
@@ -3898,7 +3952,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>137</v>
@@ -4023,10 +4077,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E26"/>
+  <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4075,7 +4129,7 @@
         <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -4099,142 +4153,187 @@
         <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="23" t="str">
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_status("</f>
         <v>INSERT INTO tbl_status(</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="23" t="str">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1">
+      <c r="C21" s="23" t="str">
         <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;") VALUES('"</f>
         <v xml:space="preserve"> status_id,status_type,status_name,description) VALUES('</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','Waiting','');</v>
-      </c>
-      <c r="C20" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RS01','RS','Waiting','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing','');</v>
-      </c>
-      <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RS02','RS','On processing','');</v>
-      </c>
-    </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Cancelled','');</v>
+        <f>$C$20&amp;$C$21&amp;C22</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','New','');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS03','RS','Cancelled','');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
+        <v>RS01','RS','New','');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use','');</v>
+        <f t="shared" ref="A23:A30" si="0">$C$20&amp;$C$21&amp;C23</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing','');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO01','RO','Not in use','');</v>
+        <f t="shared" ref="C23:C30" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
+        <v>RS02','RS','On processing','');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Processed','');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO02','RO','In use','');</v>
+        <v>RS03','RS','Processed','');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS04','RS','Cancelled','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO03','RO','Cleaning','');</v>
+        <v>RS04','RS','Cancelled','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS05','RS','Finish','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS05','RS','Finish','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use','');</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO01','RO','Not in use','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use','');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO02','RO','In use','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23" t="str">
+        <f>$C$20&amp;$C$21&amp;C29</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning','');</v>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO03','RO','Cleaning','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="23" t="str">
+        <f t="shared" ref="A30" si="2">$C$20&amp;$C$21&amp;C30</f>
         <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Fixing','');</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>RO04','RO','Fixing','');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4242,7 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
@@ -4260,7 +4359,7 @@
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
@@ -4289,7 +4388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="27" t="s">
         <v>29</v>
       </c>
@@ -4318,7 +4417,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>117</v>
@@ -4345,7 +4447,10 @@
         <v>20170101</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>117</v>
@@ -4372,7 +4477,10 @@
         <v>20170101</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>117</v>
@@ -4387,10 +4495,10 @@
         <v>20170105</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -4399,10 +4507,13 @@
         <v>20170101</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1">
         <v>25</v>
@@ -4414,7 +4525,7 @@
         <v>20170106</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -4426,10 +4537,13 @@
         <v>20170101</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1">
         <v>26</v>
@@ -4453,10 +4567,13 @@
         <v>20170430</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1">
         <v>27</v>
@@ -4480,19 +4597,22 @@
         <v>20170520</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1">
         <v>28</v>
       </c>
       <c r="E11" s="1">
-        <v>20170506</v>
+        <v>20170606</v>
       </c>
       <c r="F11" s="1">
-        <v>20170603</v>
+        <v>20170608</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -4542,51 +4662,51 @@
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','2','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','3','4','0','20170101');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','24','20170103','20170105','2','2','0','20170101');</v>
+        <v>RS01','24','20170103','20170105','3','4','0','20170101');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS02','25','20170103','20170106','3','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','25','20170103','20170106','2','3','0','20170101');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS02','25','20170103','20170106','3','3','0','20170101');</v>
+        <v>RS01','25','20170103','20170106','2','3','0','20170101');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>RS01','26','20170506','20170512','1','1','0','20170430');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>RS01','27','20170606','20170620','2','2','0','20170520');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS03','28','20170506','20170603','1','2','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','28','20170606','20170608','1','2','0','20170430');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','28','20170506','20170603','1','2','0','20170430');</v>
+        <v>RS01','28','20170606','20170608','1','2','0','20170430');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="reservation" sheetId="9" r:id="rId9"/>
     <sheet name="reservation_detail" sheetId="10" r:id="rId10"/>
     <sheet name="guest" sheetId="11" r:id="rId11"/>
+    <sheet name="invoice" sheetId="12" r:id="rId12"/>
+    <sheet name="invoice_detail" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="184">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -551,6 +553,51 @@
   </si>
   <si>
     <t>RS05</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer_identity_card</t>
+  </si>
+  <si>
+    <t>customer_phone</t>
+  </si>
+  <si>
+    <t>customer_email</t>
+  </si>
+  <si>
+    <t>update_ymd</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>payment_type_id</t>
+  </si>
+  <si>
+    <t>accountant_id</t>
+  </si>
+  <si>
+    <t>receptionist_id</t>
+  </si>
+  <si>
+    <t>tax_code</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>creater_nm</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>amount_total</t>
   </si>
 </sst>
 </file>
@@ -740,7 +787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,8 +812,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -800,13 +853,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,6 +990,30 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1571,305 +1691,588 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D34"/>
+  <dimension ref="A3:J54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A34"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
+    <col min="2" max="2" width="9.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16" style="23" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="35">
-        <v>6</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="35">
-        <v>7</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20170709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="23" t="str">
+      <c r="E4" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
         <v>INSERT INTO tbl_reservation_detail(</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> reservation_id,room_id,create_ymd) VALUES('</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="23" t="str">
-        <f>$C$21&amp;$C$22&amp;C23</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('1','RO001','20170709');</v>
-      </c>
-      <c r="C23" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>1','RO001','20170709');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="23" t="str">
-        <f t="shared" ref="A24:A29" si="0">$C$21&amp;$C$22&amp;C24</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO002','20170709');</v>
-      </c>
-      <c r="C24" s="23" t="str">
-        <f t="shared" ref="C24:C34" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"');"</f>
-        <v>2','RO002','20170709');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('2','RO007','20170709');</v>
-      </c>
-      <c r="C25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>2','RO007','20170709');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO003','20170709');</v>
-      </c>
-      <c r="C26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO003','20170709');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO004','20170709');</v>
-      </c>
-      <c r="C27" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO004','20170709');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('3','RO005','20170709');</v>
-      </c>
-      <c r="C28" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO005','20170709');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO006','20170709');</v>
-      </c>
-      <c r="C29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>4','RO006','20170709');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="23" t="str">
-        <f>$C$21&amp;$C$22&amp;C30</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('4','RO008','20170709');</v>
-      </c>
+    <row r="30" spans="1:10">
       <c r="C30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>4','RO008','20170709');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="23" t="str">
-        <f>$C$21&amp;$C$22&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('5','RO001','20170709');</v>
+        <f>$C$29&amp;$C$30&amp;C31</f>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>5','RO001','20170709');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="23" t="str">
-        <f t="shared" ref="A32" si="2">$C$21&amp;$C$22&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO007','20170709');</v>
+        <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>6','RO007','20170709');</v>
+        <f t="shared" ref="C32:C54" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
-        <f>$C$21&amp;$C$22&amp;C33</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('6','RO005','20170709');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO005','20170709');</v>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
-        <f t="shared" ref="A34" si="3">$C$21&amp;$C$22&amp;C34</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,create_ymd) VALUES('7','RO006','20170709');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO006','20170709');</v>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="23" t="str">
+        <f t="shared" ref="A44:A58" si="2">$C$29&amp;$C$30&amp;C44</f>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C51" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C52" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C54" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
   </sheetData>
@@ -1882,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2235,6 +2638,785 @@
     <hyperlink ref="E5" r:id="rId1"/>
     <hyperlink ref="E6:E11" r:id="rId2" display="hung@gmail"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="12" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11">
+      <c r="B3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_invoice("</f>
+        <v>INSERT INTO tbl_invoice(</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C25</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" ref="C27:C31" si="1">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C32</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="str">
+        <f t="shared" ref="A33:A36" si="2">$C$23&amp;$C$24&amp;C33</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;I13&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f t="shared" ref="C34:C36" si="3">""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C37</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f>""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C38</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f>""&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"','"&amp;I18&amp;"','"&amp;J18&amp;"','"&amp;K18&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23" t="str">
+        <f t="shared" ref="A39" si="4">$C$23&amp;$C$24&amp;C39</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f>""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
+        <v>','','','','','','','','');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_invoice_detail("</f>
+        <v>INSERT INTO tbl_invoice_detail(</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C25</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" ref="C26:C39" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C32</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="str">
+        <f t="shared" ref="A33:A36" si="2">$C$23&amp;$C$24&amp;C33</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C37</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23" t="str">
+        <f>$C$23&amp;$C$24&amp;C38</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23" t="str">
+        <f t="shared" ref="A39" si="3">$C$23&amp;$C$24&amp;C39</f>
+        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','','','','','','','');</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4079,7 +5261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
@@ -4253,7 +5435,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
-        <f t="shared" ref="A23:A30" si="0">$C$20&amp;$C$21&amp;C23</f>
+        <f t="shared" ref="A23:A28" si="0">$C$20&amp;$C$21&amp;C23</f>
         <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing','');</v>
       </c>
       <c r="C23" s="23" t="str">
@@ -4341,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -426,27 +426,6 @@
     <t>RO04</t>
   </si>
   <si>
-    <t>Luxury</t>
-  </si>
-  <si>
-    <t>Single room</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Grand Deluxe</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Club Suite</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>RT01</t>
   </si>
   <si>
@@ -459,15 +438,6 @@
     <t>RT04</t>
   </si>
   <si>
-    <t>RT05</t>
-  </si>
-  <si>
-    <t>RT06</t>
-  </si>
-  <si>
-    <t>RT07</t>
-  </si>
-  <si>
     <t>RO001</t>
   </si>
   <si>
@@ -492,9 +462,6 @@
     <t>In use</t>
   </si>
   <si>
-    <t>On processing</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
@@ -598,6 +565,57 @@
   </si>
   <si>
     <t>amount_total</t>
+  </si>
+  <si>
+    <t>RO010</t>
+  </si>
+  <si>
+    <t>RO011</t>
+  </si>
+  <si>
+    <t>RO012</t>
+  </si>
+  <si>
+    <t>RO013</t>
+  </si>
+  <si>
+    <t>RO014</t>
+  </si>
+  <si>
+    <t>RO015</t>
+  </si>
+  <si>
+    <t>RO016</t>
+  </si>
+  <si>
+    <t>RO017</t>
+  </si>
+  <si>
+    <t>RO018</t>
+  </si>
+  <si>
+    <t>RO019</t>
+  </si>
+  <si>
+    <t>RO020</t>
+  </si>
+  <si>
+    <t>RO021</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Twins</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Processing</t>
   </si>
 </sst>
 </file>
@@ -1723,19 +1741,19 @@
         <v>78</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>91</v>
@@ -1764,10 +1782,10 @@
         <v>85</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2167,7 +2185,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23" t="str">
-        <f t="shared" ref="A44:A58" si="2">$C$29&amp;$C$30&amp;C44</f>
+        <f t="shared" ref="A44:A54" si="2">$C$29&amp;$C$30&amp;C44</f>
         <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C44" s="23" t="str">
@@ -2365,22 +2383,22 @@
     <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1">
         <v>123456789</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I5" s="1">
         <v>123456566</v>
@@ -2392,22 +2410,22 @@
     <row r="6" spans="2:10">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1">
         <v>123456789</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I6" s="1">
         <v>123456566</v>
@@ -2419,22 +2437,22 @@
     <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>123456789</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I7" s="1">
         <v>123456566</v>
@@ -2446,22 +2464,22 @@
     <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1">
         <v>123456789</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I8" s="1">
         <v>123456566</v>
@@ -2473,22 +2491,22 @@
     <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F9" s="1">
         <v>123456789</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I9" s="1">
         <v>123456566</v>
@@ -2506,16 +2524,16 @@
         <v>651987841</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1">
         <v>123456789</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1">
         <v>123456566</v>
@@ -2533,16 +2551,16 @@
         <v>484216848</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1">
         <v>123456789</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1">
         <v>123456566</v>
@@ -2671,31 +2689,31 @@
         <v>83</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>91</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2721,10 +2739,10 @@
         <v>97</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>85</v>
@@ -3045,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3072,22 +3090,22 @@
         <v>80</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>76</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>91</v>
@@ -3116,10 +3134,10 @@
         <v>97</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -4705,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E26"/>
+  <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4751,13 +4769,13 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -4765,87 +4783,63 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="21" t="str">
@@ -4862,71 +4856,41 @@
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single room','cho hut thuoc','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single','cho hut thuoc','100');</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RT01','Single room','cho hut thuoc','100');</v>
+        <v>RT01','Single','cho hut thuoc','100');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Luxury','cho hut thuoc','100');</v>
+        <f t="shared" ref="A21:A23" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Double','cho hut thuoc','200');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RT02','Luxury','cho hut thuoc','100');</v>
+        <f t="shared" ref="C21:C23" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
+        <v>RT02','Double','cho hut thuoc','200');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Club','cho hut thuoc','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Twins','cho hut thuoc','300');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT03','Club','cho hut thuoc','100');</v>
+        <v>RT03','Twins','cho hut thuoc','300');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Grand Deluxe','cho hut thuoc','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Extra','cho hut thuoc','400');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT04','Grand Deluxe','cho hut thuoc','100');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT05','Royal','cho hut thuoc','100');</v>
-      </c>
-      <c r="C24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RT05','Royal','cho hut thuoc','100');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT06','Club Suite','cho hut thuoc','100');</v>
-      </c>
-      <c r="C25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RT06','Club Suite','cho hut thuoc','100');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT07','Family','cho hut thuoc','100');</v>
-      </c>
-      <c r="C26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RT07','Family','cho hut thuoc','100');</v>
+        <v>RT04','Extra','cho hut thuoc','400');</v>
       </c>
     </row>
   </sheetData>
@@ -4936,10 +4900,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G28"/>
+  <dimension ref="A3:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4992,10 +4956,10 @@
     <row r="5" spans="2:7">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5010,10 +4974,10 @@
     <row r="6" spans="2:7">
       <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5028,16 +4992,16 @@
     <row r="7" spans="2:7">
       <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1">
         <v>103</v>
@@ -5046,81 +5010,81 @@
     <row r="8" spans="2:7">
       <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1">
-        <v>201</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1">
-        <v>202</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1">
-        <v>302</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -5128,16 +5092,16 @@
       <c r="F12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="1">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -5145,110 +5109,437 @@
       <c r="F13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="23" t="str">
+    <row r="14" spans="2:7">
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" customHeight="1">
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="35">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="35">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="35">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
         <v>INSERT INTO tbl_room(</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="23" t="str">
+    <row r="29" spans="1:7">
+      <c r="C29" s="23" t="str">
         <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
         <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23" t="str">
-        <f t="shared" ref="A20" si="0">$C$18&amp;$C$19&amp;C20</f>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="23" t="str">
+        <f t="shared" ref="A30" si="0">$C$28&amp;$C$29&amp;C30</f>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C30" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
         <v>RO001','RT01','1','RO01','101');</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A27" si="1">$C$18&amp;$C$19&amp;C21</f>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="23" t="str">
+        <f t="shared" ref="A31:A37" si="1">$C$28&amp;$C$29&amp;C31</f>
         <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
       </c>
-      <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C28" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+      <c r="C31" s="23" t="str">
+        <f t="shared" ref="C31:C50" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
         <v>RO002','RT01','1','RO01','102');</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT03','1','RO02','103');</v>
-      </c>
-      <c r="C22" s="23" t="str">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','103');</v>
+      </c>
+      <c r="C32" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO003','RT03','1','RO02','103');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT04','2','RO02','201');</v>
-      </c>
-      <c r="C23" s="23" t="str">
+        <v>RO003','RT01','1','RO01','103');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','104');</v>
+      </c>
+      <c r="C33" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO004','RT04','2','RO02','201');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT05','2','RO02','202');</v>
-      </c>
-      <c r="C24" s="23" t="str">
+        <v>RO004','RT01','1','RO01','104');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','105');</v>
+      </c>
+      <c r="C34" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO005','RT05','2','RO02','202');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT05','3','RO03','301');</v>
-      </c>
-      <c r="C25" s="23" t="str">
+        <v>RO005','RT01','1','RO01','105');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT02','2','RO01','201');</v>
+      </c>
+      <c r="C35" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO006','RT05','3','RO03','301');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT05','3','RO03','302');</v>
-      </c>
-      <c r="C26" s="23" t="str">
+        <v>RO006','RT02','2','RO01','201');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT02','2','RO01','202');</v>
+      </c>
+      <c r="C36" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO007','RT05','3','RO03','302');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT05','2','RO01','203');</v>
-      </c>
-      <c r="C27" s="23" t="str">
+        <v>RO007','RT02','2','RO01','202');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT02','2','RO01','203');</v>
+      </c>
+      <c r="C37" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO008','RT05','2','RO01','203');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="23" t="str">
-        <f t="shared" ref="A28" si="3">$C$18&amp;$C$19&amp;C28</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT05','2','RO01','204');</v>
-      </c>
-      <c r="C28" s="23" t="str">
+        <v>RO008','RT02','2','RO01','203');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="23" t="str">
+        <f t="shared" ref="A38:A46" si="3">$C$28&amp;$C$29&amp;C38</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT02','2','RO01','204');</v>
+      </c>
+      <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>RO009','RT05','2','RO01','204');</v>
+        <v>RO009','RT02','2','RO01','204');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT02','2','RO01','205');</v>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO010','RT02','2','RO01','205');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT03','3','RO01','301');</v>
+      </c>
+      <c r="C40" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO011','RT03','3','RO01','301');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT03','3','RO01','302');</v>
+      </c>
+      <c r="C41" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO012','RT03','3','RO01','302');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT03','3','RO01','303');</v>
+      </c>
+      <c r="C42" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO013','RT03','3','RO01','303');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT03','3','RO01','304');</v>
+      </c>
+      <c r="C43" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO014','RT03','3','RO01','304');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT03','3','RO01','305');</v>
+      </c>
+      <c r="C44" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO015','RT03','3','RO01','305');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT04','4','RO01','401');</v>
+      </c>
+      <c r="C45" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO016','RT04','4','RO01','401');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT04','4','RO01','402');</v>
+      </c>
+      <c r="C46" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO017','RT04','4','RO01','402');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="23" t="str">
+        <f t="shared" ref="A47:A50" si="4">$C$28&amp;$C$29&amp;C47</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT04','4','RO01','403');</v>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO018','RT04','4','RO01','403');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT04','4','RO01','404');</v>
+      </c>
+      <c r="C48" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO019','RT04','4','RO01','404');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT04','4','RO01','405');</v>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO020','RT04','4','RO01','405');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT04','4','RO01','406');</v>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>RO021','RT04','4','RO01','406');</v>
       </c>
     </row>
   </sheetData>
@@ -5261,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5311,7 +5602,7 @@
         <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5323,7 +5614,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -5335,31 +5626,31 @@
         <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5371,7 +5662,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -5383,7 +5674,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -5395,7 +5686,7 @@
         <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -5407,7 +5698,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -5436,11 +5727,11 @@
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" ref="A23:A28" si="0">$C$20&amp;$C$21&amp;C23</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','On processing','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','Processing','');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" ref="C23:C30" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RS02','RS','On processing','');</v>
+        <v>RS02','RS','Processing','');</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,10 @@
     <sheet name="function" sheetId="5" r:id="rId4"/>
     <sheet name="permission" sheetId="4" r:id="rId5"/>
     <sheet name="room_type" sheetId="6" r:id="rId6"/>
-    <sheet name="room" sheetId="7" r:id="rId7"/>
-    <sheet name="status" sheetId="8" r:id="rId8"/>
-    <sheet name="reservation" sheetId="9" r:id="rId9"/>
-    <sheet name="reservation_detail" sheetId="10" r:id="rId10"/>
+    <sheet name="status" sheetId="8" r:id="rId7"/>
+    <sheet name="reservation" sheetId="9" r:id="rId8"/>
+    <sheet name="reservation_detail" sheetId="10" r:id="rId9"/>
+    <sheet name="room" sheetId="7" r:id="rId10"/>
     <sheet name="guest" sheetId="11" r:id="rId11"/>
     <sheet name="invoice" sheetId="12" r:id="rId12"/>
     <sheet name="invoice_detail" sheetId="13" r:id="rId13"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="192">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>Processing</t>
+  </si>
+  <si>
+    <t>date_in</t>
+  </si>
+  <si>
+    <t>date_out</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,15 +1020,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1033,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,593 +1721,651 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J54"/>
+  <dimension ref="A3:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16" style="23" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="6" width="13" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="41" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="30"/>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="31"/>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="32"/>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="32"/>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="32"/>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="32"/>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="32"/>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="32"/>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" customHeight="1">
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="35">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="35">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="35">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
+        <v>INSERT INTO tbl_room(</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="C29" s="23" t="str">
-        <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
-        <v>INSERT INTO tbl_reservation_detail(</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="23" t="str">
+        <f t="shared" ref="A30" si="0">$C$28&amp;$C$29&amp;C30</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
+      </c>
       <c r="C30" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
+        <v>RO001','RT01','1','RO01','101');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="23" t="str">
-        <f>$C$29&amp;$C$30&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" ref="A31:A37" si="1">$C$28&amp;$C$29&amp;C31</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <f t="shared" ref="C31:C50" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <v>RO002','RT01','1','RO01','102');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="str">
-        <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','103');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" ref="C32:C54" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO003','RT01','1','RO01','103');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','104');</v>
       </c>
       <c r="C33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO004','RT01','1','RO01','104');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','105');</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO005','RT01','1','RO01','105');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT02','2','RO01','201');</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO006','RT02','2','RO01','201');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT02','2','RO01','202');</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO007','RT02','2','RO01','202');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT02','2','RO01','203');</v>
       </c>
       <c r="C37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO008','RT02','2','RO01','203');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" ref="A38:A46" si="3">$C$28&amp;$C$29&amp;C38</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT02','2','RO01','204');</v>
       </c>
       <c r="C38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO009','RT02','2','RO01','204');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT02','2','RO01','205');</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO010','RT02','2','RO01','205');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT03','3','RO01','301');</v>
       </c>
       <c r="C40" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO011','RT03','3','RO01','301');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT03','3','RO01','302');</v>
       </c>
       <c r="C41" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO012','RT03','3','RO01','302');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT03','3','RO01','303');</v>
       </c>
       <c r="C42" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO013','RT03','3','RO01','303');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT03','3','RO01','304');</v>
       </c>
       <c r="C43" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO014','RT03','3','RO01','304');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="23" t="str">
-        <f t="shared" ref="A44:A54" si="2">$C$29&amp;$C$30&amp;C44</f>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT03','3','RO01','305');</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>RO015','RT03','3','RO01','305');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT04','4','RO01','401');</v>
+      </c>
+      <c r="C45" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C45" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>RO016','RT04','4','RO01','401');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT04','4','RO01','402');</v>
+      </c>
+      <c r="C46" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C46" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>RO017','RT04','4','RO01','402');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="23" t="str">
+        <f t="shared" ref="A47:A50" si="4">$C$28&amp;$C$29&amp;C47</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT04','4','RO01','403');</v>
+      </c>
+      <c r="C47" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C47" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>RO018','RT04','4','RO01','403');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT04','4','RO01','404');</v>
+      </c>
+      <c r="C48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C48" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>RO019','RT04','4','RO01','404');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT04','4','RO01','405');</v>
+      </c>
+      <c r="C49" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C49" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>RO020','RT04','4','RO01','405');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT04','4','RO01','406');</v>
+      </c>
+      <c r="C50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C50" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C51" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C52" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C53" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( id,reservation_id,room_id,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
+        <v>RO021','RT04','4','RO01','406');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2303,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2685,34 +2755,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3064,7 +3134,7 @@
   <dimension ref="A3:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3083,60 +3153,60 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="41" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4725,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4900,660 +4970,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="13" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="30"/>
-      <c r="C3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="31"/>
-      <c r="C4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="32"/>
-      <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="32"/>
-      <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="32"/>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="32"/>
-      <c r="C8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="32"/>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="32"/>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="32"/>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="35">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="35">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="35">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="35">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="35">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="35">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="35">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="35">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="35">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="35">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="35">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="35">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="35">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="35">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="35">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="35">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="35">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="35">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="19"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="23" t="str">
-        <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
-        <v>INSERT INTO tbl_room(</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30" si="0">$C$28&amp;$C$29&amp;C30</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
-      </c>
-      <c r="C30" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
-        <v>RO001','RT01','1','RO01','101');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="23" t="str">
-        <f t="shared" ref="A31:A37" si="1">$C$28&amp;$C$29&amp;C31</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
-      </c>
-      <c r="C31" s="23" t="str">
-        <f t="shared" ref="C31:C50" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
-        <v>RO002','RT01','1','RO01','102');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','103');</v>
-      </c>
-      <c r="C32" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO003','RT01','1','RO01','103');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','104');</v>
-      </c>
-      <c r="C33" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO004','RT01','1','RO01','104');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','105');</v>
-      </c>
-      <c r="C34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO005','RT01','1','RO01','105');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT02','2','RO01','201');</v>
-      </c>
-      <c r="C35" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO006','RT02','2','RO01','201');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT02','2','RO01','202');</v>
-      </c>
-      <c r="C36" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO007','RT02','2','RO01','202');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT02','2','RO01','203');</v>
-      </c>
-      <c r="C37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO008','RT02','2','RO01','203');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="23" t="str">
-        <f t="shared" ref="A38:A46" si="3">$C$28&amp;$C$29&amp;C38</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT02','2','RO01','204');</v>
-      </c>
-      <c r="C38" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO009','RT02','2','RO01','204');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT02','2','RO01','205');</v>
-      </c>
-      <c r="C39" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO010','RT02','2','RO01','205');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT03','3','RO01','301');</v>
-      </c>
-      <c r="C40" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO011','RT03','3','RO01','301');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT03','3','RO01','302');</v>
-      </c>
-      <c r="C41" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO012','RT03','3','RO01','302');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT03','3','RO01','303');</v>
-      </c>
-      <c r="C42" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO013','RT03','3','RO01','303');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT03','3','RO01','304');</v>
-      </c>
-      <c r="C43" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO014','RT03','3','RO01','304');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT03','3','RO01','305');</v>
-      </c>
-      <c r="C44" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO015','RT03','3','RO01','305');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT04','4','RO01','401');</v>
-      </c>
-      <c r="C45" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO016','RT04','4','RO01','401');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT04','4','RO01','402');</v>
-      </c>
-      <c r="C46" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO017','RT04','4','RO01','402');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="23" t="str">
-        <f t="shared" ref="A47:A50" si="4">$C$28&amp;$C$29&amp;C47</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT04','4','RO01','403');</v>
-      </c>
-      <c r="C47" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO018','RT04','4','RO01','403');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT04','4','RO01','404');</v>
-      </c>
-      <c r="C48" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO019','RT04','4','RO01','404');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT04','4','RO01','405');</v>
-      </c>
-      <c r="C49" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO020','RT04','4','RO01','405');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT04','4','RO01','406');</v>
-      </c>
-      <c r="C50" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO021','RT04','4','RO01','406');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5810,12 +5230,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5899,13 +5319,13 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>20170102</v>
+        <v>20170825</v>
       </c>
       <c r="F5" s="1">
-        <v>20170104</v>
+        <v>20170829</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -5917,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20170101</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5929,13 +5349,13 @@
         <v>117</v>
       </c>
       <c r="D6" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>20170102</v>
+        <v>20170826</v>
       </c>
       <c r="F6" s="1">
-        <v>20170103</v>
+        <v>20170830</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -5947,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>20170101</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5959,13 +5379,13 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>20170103</v>
+        <v>20170905</v>
       </c>
       <c r="F7" s="1">
-        <v>20170105</v>
+        <v>20170909</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -5977,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>20170101</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5989,13 +5409,13 @@
         <v>117</v>
       </c>
       <c r="D8" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>20170103</v>
+        <v>20170901</v>
       </c>
       <c r="F8" s="1">
-        <v>20170106</v>
+        <v>20170905</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -6007,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>20170101</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6019,13 +5439,13 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>20170506</v>
+        <v>20170910</v>
       </c>
       <c r="F9" s="1">
-        <v>20170512</v>
+        <v>20170913</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -6037,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>20170430</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6049,13 +5469,13 @@
         <v>117</v>
       </c>
       <c r="D10" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>20170606</v>
+        <v>20170912</v>
       </c>
       <c r="F10" s="1">
-        <v>20170620</v>
+        <v>20170014</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -6067,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>20170520</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6079,13 +5499,13 @@
         <v>117</v>
       </c>
       <c r="D11" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>20170606</v>
+        <v>20170913</v>
       </c>
       <c r="F11" s="1">
-        <v>20170608</v>
+        <v>20170918</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -6097,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>20170430</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6115,71 +5535,723 @@
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','22','20170102','20170104','1','2','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','1','20170825','20170829','1','2','0','20170801');</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','22','20170102','20170104','1','2','0','20170101');</v>
+        <v>RS01','1','20170825','20170829','1','2','0','20170801');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','23','20170102','20170103','2','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','2','20170826','20170830','2','3','0','20170801');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','23','20170102','20170103','2','3','0','20170101');</v>
+        <v>RS01','2','20170826','20170830','2','3','0','20170801');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','24','20170103','20170105','3','4','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','3','20170905','20170909','3','4','0','20170801');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','24','20170103','20170105','3','4','0','20170101');</v>
+        <v>RS01','3','20170905','20170909','3','4','0','20170801');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','25','20170103','20170106','2','3','0','20170101');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','4','20170901','20170905','2','3','0','20170801');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','25','20170103','20170106','2','3','0','20170101');</v>
+        <v>RS01','4','20170901','20170905','2','3','0','20170801');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','5','20170910','20170913','1','1','0','20170801');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','26','20170506','20170512','1','1','0','20170430');</v>
+        <v>RS01','5','20170910','20170913','1','1','0','20170801');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','6','20170912','20170014','2','2','0','20170801');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','27','20170606','20170620','2','2','0','20170520');</v>
+        <v>RS01','6','20170912','20170014','2','2','0','20170801');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','28','20170606','20170608','1','2','0','20170430');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','7','20170913','20170918','1','2','0','20170801');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','28','20170606','20170608','1','2','0','20170430');</v>
+        <v>RS01','7','20170913','20170918','1','2','0','20170801');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16" style="23" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B3" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
+        <v>INSERT INTO tbl_reservation_detail(</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23" t="str">
+        <f>$C$29&amp;$C$30&amp;C31</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','',',','');</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;",'"&amp;K5&amp;",'"&amp;L5&amp;"');"</f>
+        <v>1','RO001','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="23" t="str">
+        <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''2','RO002','','','','','',',','');</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f t="shared" ref="C32:C54" si="1">"'"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;",'"&amp;K6&amp;",'"&amp;L6&amp;"');"</f>
+        <v>'2','RO002','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''2','RO003','','','','','',',','');</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'2','RO003','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO001','','','','','',',','');</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'3','RO001','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO002','','','','','',',','');</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'3','RO002','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO003','','','','','',',','');</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'3','RO003','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''4','RO004','','','','','',',','');</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'4','RO004','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''4','RO005','','','','','',',','');</v>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'4','RO005','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''5','RO001','','','','','',',','');</v>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'5','RO001','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''6','RO002','','','','','',',','');</v>
+      </c>
+      <c r="C40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'6','RO002','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''6','RO003','','','','','',',','');</v>
+      </c>
+      <c r="C41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'6','RO003','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''7','RO004','','','','','',',','');</v>
+      </c>
+      <c r="C42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'7','RO004','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="23" t="str">
+        <f t="shared" ref="A44:A54" si="2">$C$29&amp;$C$30&amp;C44</f>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C51" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C52" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+      </c>
+      <c r="C54" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>'','','','','','','',',','');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -2373,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
@@ -5612,7 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -6017,241 +6017,241 @@
     <row r="31" spans="1:10">
       <c r="A31" s="23" t="str">
         <f>$C$29&amp;$C$30&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','','','','');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;",'"&amp;K5&amp;",'"&amp;L5&amp;"');"</f>
-        <v>1','RO001','','','','','',',','');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
+        <v>1','RO001','','','','','','','','');</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''2','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO002','','','','','',',','');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" ref="C32:C54" si="1">"'"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;",'"&amp;K6&amp;",'"&amp;L6&amp;"');"</f>
-        <v>'2','RO002','','','','','',',','');</v>
+        <f t="shared" ref="C32:C54" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;",'"&amp;K6&amp;",'"&amp;L6&amp;"');"</f>
+        <v>2','RO002','','','','','',',','');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''2','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO003','','','','','',',','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'2','RO003','','','','','',',','');</v>
+        <v>2','RO003','','','','','',',','');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO001','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO001','','','','','',',','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'3','RO001','','','','','',',','');</v>
+        <v>3','RO001','','','','','',',','');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO002','','','','','',',','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'3','RO002','','','','','',',','');</v>
+        <v>3','RO002','','','','','',',','');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''3','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO003','','','','','',',','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'3','RO003','','','','','',',','');</v>
+        <v>3','RO003','','','','','',',','');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''4','RO004','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO004','','','','','',',','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'4','RO004','','','','','',',','');</v>
+        <v>4','RO004','','','','','',',','');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''4','RO005','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO005','','','','','',',','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'4','RO005','','','','','',',','');</v>
+        <v>4','RO005','','','','','',',','');</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''5','RO001','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('5','RO001','','','','','',',','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'5','RO001','','','','','',',','');</v>
+        <v>5','RO001','','','','','',',','');</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''6','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO002','','','','','',',','');</v>
       </c>
       <c r="C40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'6','RO002','','','','','',',','');</v>
+        <v>6','RO002','','','','','',',','');</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''6','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO003','','','','','',',','');</v>
       </c>
       <c r="C41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'6','RO003','','','','','',',','');</v>
+        <v>6','RO003','','','','','',',','');</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''7','RO004','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('7','RO004','','','','','',',','');</v>
       </c>
       <c r="C42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'7','RO004','','','','','',',','');</v>
+        <v>7','RO004','','','','','',',','');</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23" t="str">
         <f t="shared" ref="A44:A54" si="2">$C$29&amp;$C$30&amp;C44</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C44" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C45" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C46" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C47" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C48" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C49" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C50" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C51" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C52" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C53" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES(''','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C54" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>'','','','','','','',',','');</v>
+        <v>','','','','','','',',','');</v>
       </c>
     </row>
   </sheetData>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="206">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -330,9 +330,6 @@
     <t>guest_id</t>
   </si>
   <si>
-    <t>interger</t>
-  </si>
-  <si>
     <t>status_id</t>
   </si>
   <si>
@@ -622,13 +619,58 @@
   </si>
   <si>
     <t>date_out</t>
+  </si>
+  <si>
+    <t>2017/08/01</t>
+  </si>
+  <si>
+    <t>2017/08/02</t>
+  </si>
+  <si>
+    <t>2017/08/03</t>
+  </si>
+  <si>
+    <t>2017/08/04</t>
+  </si>
+  <si>
+    <t>2017/08/05</t>
+  </si>
+  <si>
+    <t>2017/08/06</t>
+  </si>
+  <si>
+    <t>2017/08/07</t>
+  </si>
+  <si>
+    <t>2017/08/08</t>
+  </si>
+  <si>
+    <t>2017/08/09</t>
+  </si>
+  <si>
+    <t>2017/08/10</t>
+  </si>
+  <si>
+    <t>2017/08/11</t>
+  </si>
+  <si>
+    <t>2017/08/12</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>editer</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +852,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -932,7 +979,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,6 +1067,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1042,6 +1092,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1744,13 +1813,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>80</v>
@@ -1768,7 +1837,7 @@
         <v>82</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>77</v>
@@ -1777,16 +1846,16 @@
     <row r="5" spans="2:7">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
         <v>101</v>
@@ -1795,16 +1864,16 @@
     <row r="6" spans="2:7">
       <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <v>102</v>
@@ -1813,16 +1882,16 @@
     <row r="7" spans="2:7">
       <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1">
         <v>103</v>
@@ -1831,16 +1900,16 @@
     <row r="8" spans="2:7">
       <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1">
         <v>104</v>
@@ -1849,16 +1918,16 @@
     <row r="9" spans="2:7">
       <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
         <v>105</v>
@@ -1867,16 +1936,16 @@
     <row r="10" spans="2:7">
       <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1">
         <v>201</v>
@@ -1885,16 +1954,16 @@
     <row r="11" spans="2:7">
       <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1">
         <v>202</v>
@@ -1902,16 +1971,16 @@
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
         <v>203</v>
@@ -1919,16 +1988,16 @@
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1">
         <v>204</v>
@@ -1936,16 +2005,16 @@
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <v>205</v>
@@ -1953,16 +2022,16 @@
     </row>
     <row r="15" spans="2:7">
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="35">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="35">
         <v>301</v>
@@ -1970,16 +2039,16 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="35">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="35">
         <v>302</v>
@@ -1987,16 +2056,16 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="35">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="35">
         <v>303</v>
@@ -2004,16 +2073,16 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="35">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="35">
         <v>304</v>
@@ -2021,16 +2090,16 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="35">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="35">
         <v>305</v>
@@ -2038,16 +2107,16 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="35">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="35">
         <v>401</v>
@@ -2055,16 +2124,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="35">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="35">
         <v>402</v>
@@ -2072,16 +2141,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="35">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G22" s="35">
         <v>403</v>
@@ -2089,16 +2158,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="35">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="35">
         <v>404</v>
@@ -2106,16 +2175,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="35">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="35">
         <v>405</v>
@@ -2123,16 +2192,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="35">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" s="35">
         <v>406</v>
@@ -2373,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
@@ -2397,28 +2466,28 @@
         <v>83</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -2435,13 +2504,13 @@
         <v>85</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>85</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>81</v>
@@ -2453,190 +2522,190 @@
     <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1">
         <v>123456789</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I5" s="1">
         <v>123456566</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1">
         <v>123456789</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I6" s="1">
         <v>123456566</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="1">
         <v>123456789</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I7" s="1">
         <v>123456566</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1">
         <v>123456789</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I8" s="1">
         <v>123456566</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1">
         <v>123456789</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I9" s="1">
         <v>123456566</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1">
         <v>651987841</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1">
         <v>123456789</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I10" s="1">
         <v>123456566</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1">
         <v>484216848</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1">
         <v>123456789</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I11" s="1">
         <v>123456566</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2755,35 +2824,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2803,16 +2872,16 @@
         <v>82</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>85</v>
@@ -3153,61 +3222,61 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>163</v>
+      <c r="J4" s="42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -4811,7 +4880,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>74</v>
@@ -4828,24 +4897,24 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -4853,13 +4922,13 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -4867,13 +4936,13 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1">
         <v>300</v>
@@ -4881,13 +4950,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1">
         <v>400</v>
@@ -4988,10 +5057,10 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>84</v>
@@ -5002,123 +5071,123 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -5232,10 +5301,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J26"/>
+  <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5252,71 +5321,89 @@
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5336,17 +5423,21 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="1"/>
+      <c r="L5" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="23">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -5366,17 +5457,21 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="1"/>
+      <c r="L6" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="23">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5396,17 +5491,21 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="1"/>
+      <c r="L7" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="23">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -5426,17 +5525,21 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1"/>
+      <c r="L8" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="23">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -5456,17 +5559,21 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1"/>
+      <c r="L9" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="23">
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -5486,17 +5593,21 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>20170801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="1"/>
+      <c r="L10" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="23">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -5516,8 +5627,12 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <v>20170801</v>
+      <c r="J11" s="1"/>
+      <c r="L11" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5529,77 +5644,77 @@
     <row r="19" spans="1:3">
       <c r="C19" s="23" t="str">
         <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('</v>
+        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','1','20170825','20170829','1','2','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','1','20170825','20170829','1','2','0','');</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','1','20170825','20170829','1','2','0','20170801');</v>
+        <v>RS01','1','20170825','20170829','1','2','0','');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','2','20170826','20170830','2','3','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','2','20170826','20170830','2','3','0','');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','2','20170826','20170830','2','3','0','20170801');</v>
+        <v>RS01','2','20170826','20170830','2','3','0','');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','3','20170905','20170909','3','4','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','3','20170905','20170909','3','4','0','');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','3','20170905','20170909','3','4','0','20170801');</v>
+        <v>RS01','3','20170905','20170909','3','4','0','');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','4','20170901','20170905','2','3','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','4','20170901','20170905','2','3','0','');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','4','20170901','20170905','2','3','0','20170801');</v>
+        <v>RS01','4','20170901','20170905','2','3','0','');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','5','20170910','20170913','1','1','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','5','20170910','20170913','1','1','0','');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','5','20170910','20170913','1','1','0','20170801');</v>
+        <v>RS01','5','20170910','20170913','1','1','0','');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','6','20170912','20170014','2','2','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170014','2','2','0','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','6','20170912','20170014','2','2','0','20170801');</v>
+        <v>RS01','6','20170912','20170014','2','2','0','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,create_ymd) VALUES('RS01','7','20170913','20170918','1','2','0','20170801');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','7','20170913','20170918','1','2','0','');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','7','20170913','20170918','1','2','0','20170801');</v>
+        <v>RS01','7','20170913','20170918','1','2','0','');</v>
       </c>
     </row>
   </sheetData>
@@ -5612,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5632,73 +5747,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B4" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>163</v>
+      <c r="L4" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -5707,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5715,6 +5830,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1"/>
@@ -5722,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5730,6 +5851,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1"/>
@@ -5737,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5745,6 +5872,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1"/>
@@ -5752,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5760,6 +5893,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1"/>
@@ -5767,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5775,6 +5914,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="1"/>
@@ -5782,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5790,6 +5935,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1"/>
@@ -5797,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5805,6 +5956,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1"/>
@@ -5812,7 +5969,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5820,6 +5977,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="1"/>
@@ -5827,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5835,6 +5998,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="1"/>
@@ -5842,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5850,6 +6019,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="36"/>
@@ -5857,7 +6032,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5865,6 +6040,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="36"/>
@@ -5872,7 +6053,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5880,6 +6061,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="36"/>
@@ -6017,121 +6204,121 @@
     <row r="31" spans="1:10">
       <c r="A31" s="23" t="str">
         <f>$C$29&amp;$C$30&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','','','','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','','','2017/08/01','2017/08/01');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
-        <v>1','RO001','','','','','','','','');</v>
+        <v>1','RO001','','','','','','','2017/08/01','2017/08/01');</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO002','','','','','','','2017/08/02','2017/08/02');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" ref="C32:C54" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;",'"&amp;K6&amp;",'"&amp;L6&amp;"');"</f>
-        <v>2','RO002','','','','','',',','');</v>
+        <f t="shared" ref="C32:C42" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
+        <v>2','RO002','','','','','','','2017/08/02','2017/08/02');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO003','','','','','','','2017/08/03','2017/08/03');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>2','RO003','','','','','',',','');</v>
+        <v>2','RO003','','','','','','','2017/08/03','2017/08/03');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO001','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO001','','','','','','','2017/08/04','2017/08/04');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO001','','','','','',',','');</v>
+        <v>3','RO001','','','','','','','2017/08/04','2017/08/04');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO002','','','','','','','2017/08/05','2017/08/05');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO002','','','','','',',','');</v>
+        <v>3','RO002','','','','','','','2017/08/05','2017/08/05');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO003','','','','','','','2017/08/06','2017/08/06');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO003','','','','','',',','');</v>
+        <v>3','RO003','','','','','','','2017/08/06','2017/08/06');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO004','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO004','','','','','','','2017/08/07','2017/08/07');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','RO004','','','','','',',','');</v>
+        <v>4','RO004','','','','','','','2017/08/07','2017/08/07');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO005','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO005','','','','','','','2017/08/08','2017/08/08');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','RO005','','','','','',',','');</v>
+        <v>4','RO005','','','','','','','2017/08/08','2017/08/08');</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('5','RO001','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('5','RO001','','','','','','','2017/08/09','2017/08/09');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO001','','','','','',',','');</v>
+        <v>5','RO001','','','','','','','2017/08/09','2017/08/09');</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO002','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO002','','','','','','','2017/08/10','2017/08/10');</v>
       </c>
       <c r="C40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO002','','','','','',',','');</v>
+        <v>6','RO002','','','','','','','2017/08/10','2017/08/10');</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO003','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO003','','','','','','','2017/08/11','2017/08/11');</v>
       </c>
       <c r="C41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO003','','','','','',',','');</v>
+        <v>6','RO003','','','','','','','2017/08/11','2017/08/11');</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('7','RO004','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('7','RO004','','','','','','','2017/08/12','2017/08/12');</v>
       </c>
       <c r="C42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO004','','','','','',',','');</v>
+        <v>7','RO004','','','','','','','2017/08/12','2017/08/12');</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6140,117 +6327,117 @@
         <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C43" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C32:C54" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;",'"&amp;K17&amp;",'"&amp;L17&amp;"');"</f>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23" t="str">
-        <f t="shared" ref="A44:A54" si="2">$C$29&amp;$C$30&amp;C44</f>
+        <f t="shared" ref="A44:A54" si="3">$C$29&amp;$C$30&amp;C44</f>
         <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C45" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C45" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C46" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C46" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C47" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C47" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C48" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C49" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C49" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C50" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C51" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C51" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C52" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C52" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C53" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C53" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+      </c>
+      <c r="C54" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
-      </c>
-      <c r="C54" s="23" t="str">
-        <f t="shared" si="1"/>
         <v>','','','','','','',',','');</v>
       </c>
     </row>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="211">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -480,9 +480,6 @@
     <t>Hoa Lac</t>
   </si>
   <si>
-    <t>cho hut thuoc</t>
-  </si>
-  <si>
     <t>Vũ Trần Hoàng</t>
   </si>
   <si>
@@ -664,6 +661,24 @@
   </si>
   <si>
     <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>check_in_flag</t>
+  </si>
+  <si>
+    <t>check_out_flag</t>
+  </si>
+  <si>
+    <t>Phòng có 1 giường đơn</t>
+  </si>
+  <si>
+    <t>Phòng có 2 giường đơn</t>
+  </si>
+  <si>
+    <t>Phòng có 2 giường đôi Queen size</t>
+  </si>
+  <si>
+    <t>Phòng có 1 giường đôi Queen size</t>
   </si>
 </sst>
 </file>
@@ -891,12 +906,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -917,17 +932,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1065,12 +1069,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,10 +1085,29 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,28 +1116,7 @@
     <xf numFmtId="49" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1792,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1975,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>126</v>
@@ -1988,7 +1992,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>126</v>
@@ -2005,7 +2009,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>126</v>
@@ -2022,7 +2026,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>127</v>
@@ -2039,7 +2043,7 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>127</v>
@@ -2056,7 +2060,7 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>127</v>
@@ -2073,7 +2077,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>127</v>
@@ -2090,7 +2094,7 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>127</v>
@@ -2107,7 +2111,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>128</v>
@@ -2124,7 +2128,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>128</v>
@@ -2141,7 +2145,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>128</v>
@@ -2158,7 +2162,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>128</v>
@@ -2175,7 +2179,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>128</v>
@@ -2192,7 +2196,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>128</v>
@@ -2522,7 +2526,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
@@ -2549,7 +2553,7 @@
     <row r="6" spans="2:10">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
@@ -2576,7 +2580,7 @@
     <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
@@ -2603,7 +2607,7 @@
     <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
@@ -2630,7 +2634,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
@@ -2824,35 +2828,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2878,10 +2882,10 @@
         <v>96</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>85</v>
@@ -3222,61 +3226,61 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>162</v>
+      <c r="J4" s="41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -4864,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4873,7 +4877,7 @@
     <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
@@ -4911,13 +4915,13 @@
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4925,13 +4929,13 @@
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -4939,13 +4943,13 @@
         <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4953,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="E8" s="1">
-        <v>400</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4995,41 +4999,41 @@
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single','cho hut thuoc','100');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single','Phòng có 1 giường đơn','100000');</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RT01','Single','cho hut thuoc','100');</v>
+        <v>RT01','Single','Phòng có 1 giường đơn','100000');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
         <f t="shared" ref="A21:A23" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Double','cho hut thuoc','200');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" ref="C21:C23" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RT02','Double','cho hut thuoc','200');</v>
+        <v>RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Twins','cho hut thuoc','300');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Twins','Phòng có 2 giường đơn','300000');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT03','Twins','cho hut thuoc','300');</v>
+        <v>RT03','Twins','Phòng có 2 giường đơn','300000');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Extra','cho hut thuoc','400');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RT04','Extra','cho hut thuoc','400');</v>
+        <v>RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5095,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5103,7 +5107,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -5115,13 +5119,13 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>118</v>
@@ -5133,13 +5137,13 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5303,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5322,79 +5326,79 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="K4" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>162</v>
+      <c r="M4" s="48" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5424,11 +5428,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="L5" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>191</v>
+      <c r="L5" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5458,11 +5462,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="L6" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>192</v>
+      <c r="L6" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5492,11 +5496,11 @@
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="L7" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>193</v>
+      <c r="L7" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5526,11 +5530,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="L8" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>194</v>
+      <c r="L8" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5560,11 +5564,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="L9" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>195</v>
+      <c r="L9" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5582,7 +5586,7 @@
         <v>20170912</v>
       </c>
       <c r="F10" s="1">
-        <v>20170014</v>
+        <v>20170914</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -5594,11 +5598,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="L10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>196</v>
+      <c r="L10" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5628,11 +5632,11 @@
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="L11" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>197</v>
+      <c r="L11" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5700,11 +5704,11 @@
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170014','2','2','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170914','2','2','0','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','6','20170912','20170014','2','2','0','');</v>
+        <v>RS01','6','20170912','20170914','2','2','0','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5725,10 +5729,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L54"/>
+  <dimension ref="A3:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K11"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5743,80 +5747,101 @@
     <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="11" max="13" width="9" style="23"/>
+    <col min="14" max="14" width="14" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="O3" s="51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B4" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="O4" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>1</v>
@@ -5824,20 +5849,31 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>20170825</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20170829</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>2</v>
@@ -5845,20 +5881,31 @@
       <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>20170826</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20170830</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>2</v>
@@ -5866,20 +5913,31 @@
       <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>20170826</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20170830</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>3</v>
@@ -5887,20 +5945,31 @@
       <c r="D8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>20170905</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20170909</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>3</v>
@@ -5908,20 +5977,31 @@
       <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>20170905</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20170909</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>3</v>
@@ -5929,20 +6009,31 @@
       <c r="D10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>20170905</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20170909</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>4</v>
@@ -5950,20 +6041,31 @@
       <c r="D11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>20170901</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20170905</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>4</v>
@@ -5971,20 +6073,31 @@
       <c r="D12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>20170901</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20170905</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>5</v>
@@ -5992,20 +6105,31 @@
       <c r="D13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>20170910</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20170913</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>6</v>
@@ -6013,64 +6137,97 @@
       <c r="D14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>20170912</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20170914</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>20170912</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20170914</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>20170913</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20170918</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6078,10 +6235,15 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6089,10 +6251,15 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6100,10 +6267,15 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6111,10 +6283,15 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -6122,10 +6299,15 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -6133,10 +6315,15 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6144,10 +6331,15 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6156,7 +6348,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6167,7 +6359,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6178,7 +6370,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -6189,152 +6381,152 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:15">
       <c r="C29" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_reservation_detail("</f>
         <v>INSERT INTO tbl_reservation_detail(</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:15">
       <c r="C30" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="23" t="str">
         <f>$C$29&amp;$C$30&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('1','RO001','','','','','','','2017/08/01','2017/08/01');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('1','RO001','20170825','20170829','','','','','','0','0','2017/08/01','2017/08/01');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
-        <v>1','RO001','','','','','','','2017/08/01','2017/08/01');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"');"</f>
+        <v>1','RO001','20170825','20170829','','','','','','0','0','2017/08/01','2017/08/01');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO002','','','','','','','2017/08/02','2017/08/02');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO002','20170826','20170830','','','','','','0','0','2017/08/02','2017/08/02');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" ref="C32:C42" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
-        <v>2','RO002','','','','','','','2017/08/02','2017/08/02');</v>
+        <f t="shared" ref="C32:C42" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"','"&amp;N6&amp;"','"&amp;O6&amp;"');"</f>
+        <v>2','RO002','20170826','20170830','','','','','','0','0','2017/08/02','2017/08/02');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('2','RO003','','','','','','','2017/08/03','2017/08/03');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO003','20170826','20170830','','','','','','0','0','2017/08/03','2017/08/03');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>2','RO003','','','','','','','2017/08/03','2017/08/03');</v>
+        <v>2','RO003','20170826','20170830','','','','','','0','0','2017/08/03','2017/08/03');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO001','','','','','','','2017/08/04','2017/08/04');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('3','RO001','20170905','20170909','','','','','','0','0','2017/08/04','2017/08/04');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO001','','','','','','','2017/08/04','2017/08/04');</v>
+        <v>3','RO001','20170905','20170909','','','','','','0','0','2017/08/04','2017/08/04');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO002','','','','','','','2017/08/05','2017/08/05');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('3','RO002','20170905','20170909','','','','','','0','0','2017/08/05','2017/08/05');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO002','','','','','','','2017/08/05','2017/08/05');</v>
+        <v>3','RO002','20170905','20170909','','','','','','0','0','2017/08/05','2017/08/05');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('3','RO003','','','','','','','2017/08/06','2017/08/06');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('3','RO003','20170905','20170909','','','','','','0','0','2017/08/06','2017/08/06');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO003','','','','','','','2017/08/06','2017/08/06');</v>
+        <v>3','RO003','20170905','20170909','','','','','','0','0','2017/08/06','2017/08/06');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO004','','','','','','','2017/08/07','2017/08/07');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('4','RO004','20170901','20170905','','','','','','0','0','2017/08/07','2017/08/07');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','RO004','','','','','','','2017/08/07','2017/08/07');</v>
+        <v>4','RO004','20170901','20170905','','','','','','0','0','2017/08/07','2017/08/07');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('4','RO005','','','','','','','2017/08/08','2017/08/08');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('4','RO005','20170901','20170905','','','','','','0','0','2017/08/08','2017/08/08');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','RO005','','','','','','','2017/08/08','2017/08/08');</v>
+        <v>4','RO005','20170901','20170905','','','','','','0','0','2017/08/08','2017/08/08');</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('5','RO001','','','','','','','2017/08/09','2017/08/09');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('5','RO001','20170910','20170913','','','','','','0','0','2017/08/09','2017/08/09');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO001','','','','','','','2017/08/09','2017/08/09');</v>
+        <v>5','RO001','20170910','20170913','','','','','','0','0','2017/08/09','2017/08/09');</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO002','','','','','','','2017/08/10','2017/08/10');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('6','RO002','20170912','20170914','','','','','','0','0','2017/08/10','2017/08/10');</v>
       </c>
       <c r="C40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO002','','','','','','','2017/08/10','2017/08/10');</v>
+        <v>6','RO002','20170912','20170914','','','','','','0','0','2017/08/10','2017/08/10');</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('6','RO003','','','','','','','2017/08/11','2017/08/11');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('6','RO003','20170912','20170914','','','','','','0','0','2017/08/11','2017/08/11');</v>
       </c>
       <c r="C41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO003','','','','','','','2017/08/11','2017/08/11');</v>
+        <v>6','RO003','20170912','20170914','','','','','','0','0','2017/08/11','2017/08/11');</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('7','RO004','','','','','','','2017/08/12','2017/08/12');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('7','RO004','20170913','20170918','','','','','','0','0','2017/08/12','2017/08/12');</v>
       </c>
       <c r="C42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO004','','','','','','','2017/08/12','2017/08/12');</v>
+        <v>7','RO004','20170913','20170918','','','','','','0','0','2017/08/12','2017/08/12');</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C43" s="23" t="str">
-        <f t="shared" ref="C32:C54" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;",'"&amp;K17&amp;",'"&amp;L17&amp;"');"</f>
+        <f t="shared" ref="C43:C54" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;",'"&amp;K17&amp;",'"&amp;L17&amp;"');"</f>
         <v>','','','','','','',',','');</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23" t="str">
         <f t="shared" ref="A44:A54" si="3">$C$29&amp;$C$30&amp;C44</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C44" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6344,7 +6536,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C45" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6354,7 +6546,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C46" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6364,7 +6556,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C47" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6374,7 +6566,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C48" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6384,7 +6576,7 @@
     <row r="49" spans="1:3">
       <c r="A49" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C49" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6394,7 +6586,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C50" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6404,7 +6596,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C51" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6414,7 +6606,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C52" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6424,7 +6616,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C53" s="23" t="str">
         <f t="shared" si="2"/>
@@ -6434,7 +6626,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('','','','','','','',',','');</v>
       </c>
       <c r="C54" s="23" t="str">
         <f t="shared" si="2"/>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -4868,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5731,7 +5731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A42"/>
     </sheetView>
   </sheetViews>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="permission" sheetId="4" r:id="rId5"/>
     <sheet name="room_type" sheetId="6" r:id="rId6"/>
     <sheet name="status" sheetId="8" r:id="rId7"/>
-    <sheet name="reservation" sheetId="9" r:id="rId8"/>
+    <sheet name="room" sheetId="7" r:id="rId8"/>
     <sheet name="reservation_detail" sheetId="10" r:id="rId9"/>
-    <sheet name="room" sheetId="7" r:id="rId10"/>
+    <sheet name="reservation" sheetId="9" r:id="rId10"/>
     <sheet name="guest" sheetId="11" r:id="rId11"/>
     <sheet name="invoice" sheetId="12" r:id="rId12"/>
     <sheet name="invoice_detail" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="272">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -456,21 +457,6 @@
     <t>RO007</t>
   </si>
   <si>
-    <t>In use</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>Not in use</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>Fixing</t>
-  </si>
-  <si>
     <t>hung@gmail</t>
   </si>
   <si>
@@ -501,15 +487,6 @@
     <t>RO009</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Processed</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>RS04</t>
   </si>
   <si>
@@ -537,18 +514,9 @@
     <t>payment_type_id</t>
   </si>
   <si>
-    <t>accountant_id</t>
-  </si>
-  <si>
-    <t>receptionist_id</t>
-  </si>
-  <si>
     <t>tax_code</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>creater_nm</t>
   </si>
   <si>
@@ -609,9 +577,6 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
     <t>date_in</t>
   </si>
   <si>
@@ -679,13 +644,232 @@
   </si>
   <si>
     <t>Phòng có 1 giường đôi Queen size</t>
+  </si>
+  <si>
+    <t>payment_flag</t>
+  </si>
+  <si>
+    <t>updater_nm</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P207</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P209</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P204</t>
+  </si>
+  <si>
+    <t>P205</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>RO022</t>
+  </si>
+  <si>
+    <t>RO023</t>
+  </si>
+  <si>
+    <t>RO024</t>
+  </si>
+  <si>
+    <t>RO025</t>
+  </si>
+  <si>
+    <t>RO026</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>P306</t>
+  </si>
+  <si>
+    <t>P307</t>
+  </si>
+  <si>
+    <t>P308</t>
+  </si>
+  <si>
+    <t>P309</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>P304</t>
+  </si>
+  <si>
+    <t>P305</t>
+  </si>
+  <si>
+    <t>P310</t>
+  </si>
+  <si>
+    <t>RO027</t>
+  </si>
+  <si>
+    <t>RO028</t>
+  </si>
+  <si>
+    <t>RO029</t>
+  </si>
+  <si>
+    <t>RO030</t>
+  </si>
+  <si>
+    <t>RO031</t>
+  </si>
+  <si>
+    <t>RO032</t>
+  </si>
+  <si>
+    <t>RO033</t>
+  </si>
+  <si>
+    <t>RO034</t>
+  </si>
+  <si>
+    <t>RO035</t>
+  </si>
+  <si>
+    <t>RO036</t>
+  </si>
+  <si>
+    <t>RO037</t>
+  </si>
+  <si>
+    <t>RO038</t>
+  </si>
+  <si>
+    <t>RO039</t>
+  </si>
+  <si>
+    <t>RO040</t>
+  </si>
+  <si>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>P402</t>
+  </si>
+  <si>
+    <t>P403</t>
+  </si>
+  <si>
+    <t>P404</t>
+  </si>
+  <si>
+    <t>P405</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
+    <t>P407</t>
+  </si>
+  <si>
+    <t>P408</t>
+  </si>
+  <si>
+    <t>P409</t>
+  </si>
+  <si>
+    <t>P410</t>
+  </si>
+  <si>
+    <t>Chưa xử lý</t>
+  </si>
+  <si>
+    <t>Đang xử lý</t>
+  </si>
+  <si>
+    <t>Đã xử lý</t>
+  </si>
+  <si>
+    <t>Hủy bỏ</t>
+  </si>
+  <si>
+    <t>Kết thúc</t>
+  </si>
+  <si>
+    <t>Phòng trống</t>
+  </si>
+  <si>
+    <t>Đang sử dụng</t>
+  </si>
+  <si>
+    <t>Đạng dọn</t>
+  </si>
+  <si>
+    <t>Sửa chữa</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>Room</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +1056,20 @@
       <name val="Meiryo UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -900,13 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1181,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,9 +1271,6 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1083,9 +1278,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1107,6 +1299,25 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1116,7 +1327,6 @@
     <xf numFmtId="49" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1748,41 +1958,41 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:A22" si="0">$B$16&amp;$B$17&amp;C19</f>
+        <f>$B$16&amp;$B$17&amp;C19</f>
         <v>INSERT INTO t_user( user_id,user_name,login_pwd,pwd_regs_ymd,acc_lock_flg,delete_flg,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('U0200','HoangVT','654321','20170602','0','0','20170602','U0100','HungNV','20170603','','');</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C22" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"');"</f>
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"');"</f>
         <v>U0200','HoangVT','654321','20170602','0','0','20170602','U0100','HungNV','20170603','','');</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f>$B$16&amp;$B$17&amp;C20</f>
         <v>INSERT INTO t_user( user_id,user_name,login_pwd,pwd_regs_ymd,acc_lock_flg,delete_flg,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('U0300','QuyenTB','234567','20170603','0','0','20170603','U0100','HungNV','20170604','','');</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"');"</f>
         <v>U0300','QuyenTB','234567','20170603','0','0','20170603','U0100','HungNV','20170604','','');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f>$B$16&amp;$B$17&amp;C21</f>
         <v>INSERT INTO t_user( user_id,user_name,login_pwd,pwd_regs_ymd,acc_lock_flg,delete_flg,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('U0400','SonDC','345678','20170604','0','0','20170604','U0100','HungNV','20170605','','');</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"');"</f>
         <v>U0400','SonDC','345678','20170604','0','0','20170604','U0100','HungNV','20170605','','');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f>$B$16&amp;$B$17&amp;C22</f>
         <v>INSERT INTO t_user( user_id,user_name,login_pwd,pwd_regs_ymd,acc_lock_flg,delete_flg,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('U0500','ManhDD','456789','20170605','0','0','20170605','U0100','HungNV','20170606','','');</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"','"&amp;K9&amp;"','"&amp;L9&amp;"','"&amp;M9&amp;"');"</f>
         <v>U0500','ManhDD','456789','20170605','0','0','20170605','U0100','HungNV','20170606','','');</v>
       </c>
     </row>
@@ -1794,651 +2004,425 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G50"/>
+  <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="13" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
+    <col min="3" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="30"/>
-      <c r="C3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="15" t="s">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="31"/>
-      <c r="C4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="32"/>
+      <c r="E4" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>20170825</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20170829</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="32"/>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
       </c>
       <c r="E6" s="1">
+        <v>20170826</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20170830</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20170905</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20170909</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20170901</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20170905</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20170910</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20170913</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="32"/>
-      <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="32"/>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20170912</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20170914</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20170913</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20170918</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="32"/>
-      <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="32"/>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="32"/>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="35">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" customHeight="1">
-      <c r="C16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="35">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="35">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="35">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="35">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="35">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="35">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="35">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="35">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="35">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="35">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="35">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="35">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="35">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="35">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="35">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="35">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="35">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="19"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="23" t="str">
-        <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
-        <v>INSERT INTO tbl_room(</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30" si="0">$C$28&amp;$C$29&amp;C30</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','101');</v>
-      </c>
-      <c r="C30" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
-        <v>RO001','RT01','1','RO01','101');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="23" t="str">
-        <f t="shared" ref="A31:A37" si="1">$C$28&amp;$C$29&amp;C31</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','102');</v>
-      </c>
-      <c r="C31" s="23" t="str">
-        <f t="shared" ref="C31:C50" si="2">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
-        <v>RO002','RT01','1','RO01','102');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','103');</v>
-      </c>
-      <c r="C32" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO003','RT01','1','RO01','103');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','104');</v>
-      </c>
-      <c r="C33" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO004','RT01','1','RO01','104');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','105');</v>
-      </c>
-      <c r="C34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO005','RT01','1','RO01','105');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT02','2','RO01','201');</v>
-      </c>
-      <c r="C35" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO006','RT02','2','RO01','201');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT02','2','RO01','202');</v>
-      </c>
-      <c r="C36" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO007','RT02','2','RO01','202');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT02','2','RO01','203');</v>
-      </c>
-      <c r="C37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO008','RT02','2','RO01','203');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="23" t="str">
-        <f t="shared" ref="A38:A46" si="3">$C$28&amp;$C$29&amp;C38</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT02','2','RO01','204');</v>
-      </c>
-      <c r="C38" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO009','RT02','2','RO01','204');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT02','2','RO01','205');</v>
-      </c>
-      <c r="C39" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO010','RT02','2','RO01','205');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT03','3','RO01','301');</v>
-      </c>
-      <c r="C40" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO011','RT03','3','RO01','301');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT03','3','RO01','302');</v>
-      </c>
-      <c r="C41" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO012','RT03','3','RO01','302');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT03','3','RO01','303');</v>
-      </c>
-      <c r="C42" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO013','RT03','3','RO01','303');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT03','3','RO01','304');</v>
-      </c>
-      <c r="C43" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO014','RT03','3','RO01','304');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT03','3','RO01','305');</v>
-      </c>
-      <c r="C44" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO015','RT03','3','RO01','305');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT04','4','RO01','401');</v>
-      </c>
-      <c r="C45" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO016','RT04','4','RO01','401');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT04','4','RO01','402');</v>
-      </c>
-      <c r="C46" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO017','RT04','4','RO01','402');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="23" t="str">
-        <f t="shared" ref="A47:A50" si="4">$C$28&amp;$C$29&amp;C47</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT04','4','RO01','403');</v>
-      </c>
-      <c r="C47" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO018','RT04','4','RO01','403');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT04','4','RO01','404');</v>
-      </c>
-      <c r="C48" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO019','RT04','4','RO01','404');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT04','4','RO01','405');</v>
-      </c>
-      <c r="C49" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO020','RT04','4','RO01','405');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT04','4','RO01','406');</v>
-      </c>
-      <c r="C50" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>RO021','RT04','4','RO01','406');</v>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_reservation("</f>
+        <v>INSERT INTO tbl_reservation(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="str">
+        <f>$C$18&amp;$C$19&amp;C20</f>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','1','20170825','20170829','1','2','0','');</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>RS01','1','20170825','20170829','1','2','0','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="str">
+        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','2','20170826','20170830','2','3','0','');</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>RS01','2','20170826','20170830','2','3','0','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','3','20170905','20170909','3','4','0','');</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS01','3','20170905','20170909','3','4','0','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','4','20170901','20170905','2','3','0','');</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS01','4','20170901','20170905','2','3','0','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','5','20170910','20170913','1','1','0','');</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS01','5','20170910','20170913','1','1','0','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170914','2','2','0','');</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS01','6','20170912','20170914','2','2','0','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','7','20170913','20170918','1','2','0','');</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RS01','7','20170913','20170918','1','2','0','');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2526,22 +2510,22 @@
     <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1">
         <v>126491311</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1">
         <v>123456789</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I5" s="1">
         <v>123456566</v>
@@ -2553,22 +2537,22 @@
     <row r="6" spans="2:10">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1">
         <v>841318413</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1">
         <v>123456789</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I6" s="1">
         <v>123456566</v>
@@ -2580,22 +2564,22 @@
     <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1">
         <v>511974121</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F7" s="1">
         <v>123456789</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I7" s="1">
         <v>123456566</v>
@@ -2607,22 +2591,22 @@
     <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1">
         <v>648413161</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1">
         <v>123456789</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I8" s="1">
         <v>123456566</v>
@@ -2634,22 +2618,22 @@
     <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1">
         <v>884131988</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1">
         <v>123456789</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I9" s="1">
         <v>123456566</v>
@@ -2667,16 +2651,16 @@
         <v>651987841</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F10" s="1">
         <v>123456789</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I10" s="1">
         <v>123456566</v>
@@ -2694,16 +2678,16 @@
         <v>484216848</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1">
         <v>123456789</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1">
         <v>123456566</v>
@@ -2805,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K39"/>
+  <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2824,363 +2808,454 @@
     <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
     <col min="11" max="11" width="12" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="12" max="12" width="14.140625" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="F3" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="24" t="s">
+      <c r="L3" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="G4" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1"/>
+      <c r="K4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53">
+        <v>1</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>440000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="53">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="53">
+        <v>3</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="53">
+        <v>4</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="53">
+        <v>5</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>330000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="53">
+        <v>6</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>440000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="53">
+        <v>7</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>550000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="54"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="E17" s="55"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" s="23" t="str">
         <f xml:space="preserve"> "INSERT INTO tbl_invoice("</f>
         <v>INSERT INTO tbl_invoice(</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:8">
       <c r="C24" s="23" t="str">
         <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v xml:space="preserve"> payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','1','1','','440000','1','','','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>','1','1','','440000','1','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','2','2','','880000','1','','','');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f>""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>','2','2','','880000','1','','','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f t="shared" ref="C27:C31" si="1">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
+        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I13&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="23" t="str">
+    <row r="28" spans="1:8">
+      <c r="A28" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C28" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="23" t="e">
+        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;#REF!&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"','"&amp;I14&amp;"','"&amp;J14&amp;"','"&amp;K14&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:8">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"','"&amp;I15&amp;"','"&amp;J15&amp;"','"&amp;K15&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:8">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;H16&amp;"','"&amp;I16&amp;"','"&amp;J16&amp;"','"&amp;K16&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:8">
       <c r="A32" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C32</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" ref="A32:A39" si="1">$C$23&amp;$C$24&amp;C32</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
+        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I13&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="23" t="str">
-        <f t="shared" ref="A33:A36" si="2">$C$23&amp;$C$24&amp;C33</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C33" s="23" t="str">
-        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;I13&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
-        <v>','','','','','','','','');</v>
+      <c r="A33" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="23" t="e">
+        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;#REF!&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34:C36" si="3">""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
+        <f>""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>""&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>""&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"','"&amp;F21&amp;"','"&amp;G21&amp;"','"&amp;H21&amp;"','"&amp;I21&amp;"','"&amp;J21&amp;"','"&amp;K21&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C37</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
-      </c>
-      <c r="C37" s="23" t="str">
-        <f>""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
-        <v>','','','','','','','','');</v>
+      <c r="A37" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="23" t="e">
+        <f>""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;#REF!&amp;"','"&amp;#REF!&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C38</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f>""&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"','"&amp;I18&amp;"','"&amp;J18&amp;"','"&amp;K18&amp;"');"</f>
@@ -3189,8 +3264,8 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
-        <f t="shared" ref="A39" si="4">$C$23&amp;$C$24&amp;C39</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,accountant_id,receptionist_id,guest_id,tax_code,amount,update_ymd,create_ymd,creater_nm) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
@@ -3199,15 +3274,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J39"/>
+  <dimension ref="A3:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C22" sqref="C19:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3225,194 +3301,344 @@
     <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="41" t="s">
+      <c r="D4" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="G4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>400000</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>400000</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>400000</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>400000</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>400000</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>400000</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>400000</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>400000</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:11">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>400000</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>400000</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:11">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>400000</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>400000</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:11">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>400000</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>400000</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>400000</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>400000</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>300000</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>300000</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200000</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>200000</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>200000</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>200000</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:11">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>500000</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>500000</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="23" spans="1:3">
@@ -3424,133 +3650,133 @@
     <row r="24" spans="1:3">
       <c r="C24" s="23" t="str">
         <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('</v>
+        <v xml:space="preserve"> invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('1','RO001','Room','1','400000','','400000','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>','','','','','','','');</v>
+        <v>1','RO001','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('2','RO002','Room','1','400000','','400000','');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" ref="C26:C39" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>','','','','','','','');</v>
+        <v>2','RO002','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('2','RO003','Room','1','400000','','400000','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>2','RO003','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO001','Room','1','400000','','400000','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>3','RO001','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO002','Room','1','400000','','400000','');</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <f>""&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E11&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I11&amp;"','"&amp;J9&amp;"');"</f>
+        <v>3','RO002','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO003','Room','1','400000','','400000','');</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <f>""&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E12&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I12&amp;"','"&amp;J10&amp;"');"</f>
+        <v>3','RO003','Room','1','400000','','400000','');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23" t="str">
+      <c r="A31" s="23" t="e">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
-      </c>
-      <c r="C31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="23" t="e">
+        <f>""&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;#REF!&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;#REF!&amp;"','"&amp;J11&amp;"');"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C32</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
-      </c>
-      <c r="C32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+      <c r="A32" s="23" t="e">
+        <f t="shared" ref="A32:A39" si="2">$C$23&amp;$C$24&amp;C32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="23" t="e">
+        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;#REF!&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;#REF!&amp;"','"&amp;J12&amp;"');"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
-        <f t="shared" ref="A33:A36" si="2">$C$23&amp;$C$24&amp;C33</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('5','RO001','Room','1','300000','','300000','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>5','RO001','Room','1','300000','','300000','');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('6','RO002','Room','1','200000','','200000','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>6','RO002','Room','1','200000','','200000','');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('6','RO003','Room','1','200000','','200000','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>6','RO003','Room','1','200000','','200000','');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('7','RO004','Room','1','500000','','500000','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>7','RO004','Room','1','500000','','500000','');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C37</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3559,8 +3785,8 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
-        <f>$C$23&amp;$C$24&amp;C38</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3569,8 +3795,8 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
-        <f t="shared" ref="A39" si="3">$C$23&amp;$C$24&amp;C39</f>
-        <v>INSERT INTO tbl_invoice_detail( room_number,invoice_id,description,quantity,price,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3761,13 +3987,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D14" t="str">
-        <f>"'"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"');"</f>
+        <f t="shared" ref="D14:D20" si="0">"'"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"');"</f>
         <v>'G0001','Manager','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="str">
-        <f t="shared" ref="B15:B20" si="0" xml:space="preserve"> "INSERT INTO t_group("</f>
+        <f t="shared" ref="B15:B20" si="1" xml:space="preserve"> "INSERT INTO t_group("</f>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C15" t="str">
@@ -3775,13 +4001,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D15" t="str">
-        <f>"'"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>'G0002','Receptionist','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C16" t="str">
@@ -3789,13 +4015,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D16" t="str">
-        <f>"'"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>'G0003','Accounting','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C17" t="str">
@@ -3803,13 +4029,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D17" t="str">
-        <f>"'"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>'','','','','','','','');</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C18" t="str">
@@ -3817,13 +4043,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18:D20" si="1">"'"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>'','','','','','','','');</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C19" t="str">
@@ -3831,13 +4057,13 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D19" t="str">
-        <f>"'"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>'','','','','','','','');</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO t_group(</v>
       </c>
       <c r="C20" t="str">
@@ -3845,7 +4071,7 @@
         <v>group_cd,group_name,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES(</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'','','','','','','','');</v>
       </c>
     </row>
@@ -4100,41 +4326,41 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
-        <f t="shared" ref="A21:A24" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <f>$C$18&amp;$C$19&amp;C21</f>
         <v>INSERT INTO t_user_group( seq_no,user_id,group_cd,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('','U0002','G0001','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C24" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
         <v>','U0002','G0001','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f>$C$18&amp;$C$19&amp;C22</f>
         <v>INSERT INTO t_user_group( seq_no,user_id,group_cd,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('','U0002','G0003','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"');"</f>
         <v>','U0002','G0003','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f>$C$18&amp;$C$19&amp;C23</f>
         <v>INSERT INTO t_user_group( seq_no,user_id,group_cd,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('','U0003','G0002','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"');"</f>
         <v>','U0003','G0002','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f>$C$18&amp;$C$19&amp;C24</f>
         <v>INSERT INTO t_user_group( seq_no,user_id,group_cd,register_ymd,register_cd,register_nm,last_update_ymd,last_register_cd,last_register_nm) VALUES('','U0003','G0003','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"');"</f>
         <v>','U0003','G0003','20170606','U0100','HungNV','20170607','U0100','HungNV');</v>
       </c>
     </row>
@@ -4868,7 +5094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
@@ -4915,10 +5141,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1">
         <v>100000</v>
@@ -4929,10 +5155,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E6" s="1">
         <v>200000</v>
@@ -4943,10 +5169,10 @@
         <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1">
         <v>300000</v>
@@ -4957,10 +5183,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1">
         <v>400000</v>
@@ -5008,31 +5234,31 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
-        <f t="shared" ref="A21:A23" si="0">$C$18&amp;$C$19&amp;C21</f>
+        <f>$C$18&amp;$C$19&amp;C21</f>
         <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C23" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
+        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
         <v>RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>$C$18&amp;$C$19&amp;C22</f>
         <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Twins','Phòng có 2 giường đơn','300000');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"');"</f>
         <v>RT03','Twins','Phòng có 2 giường đơn','300000');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>$C$18&amp;$C$19&amp;C23</f>
         <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"');"</f>
         <v>RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
       </c>
     </row>
@@ -5045,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5095,7 +5321,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5107,7 +5333,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -5119,31 +5345,31 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5155,7 +5381,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -5167,7 +5393,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -5179,7 +5405,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -5191,7 +5417,7 @@
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -5210,91 +5436,91 @@
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f>$C$20&amp;$C$21&amp;C22</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','New','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS01','RS','Chưa xử lý','');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RS01','RS','New','');</v>
+        <v>RS01','RS','Chưa xử lý','');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" ref="A23:A28" si="0">$C$20&amp;$C$21&amp;C23</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','Processing','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS02','RS','Đang xử lý','');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" ref="C23:C30" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RS02','RS','Processing','');</v>
+        <v>RS02','RS','Đang xử lý','');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Processed','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS03','RS','Đã xử lý','');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS03','RS','Processed','');</v>
+        <v>RS03','RS','Đã xử lý','');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS04','RS','Cancelled','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS04','RS','Hủy bỏ','');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS04','RS','Cancelled','');</v>
+        <v>RS04','RS','Hủy bỏ','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS05','RS','Finish','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RS05','RS','Kết thúc','');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS05','RS','Finish','');</v>
+        <v>RS05','RS','Kết thúc','');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Not in use','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO01','RO','Phòng trống','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO01','RO','Not in use','');</v>
+        <v>RO01','RO','Phòng trống','');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','In use','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO02','RO','Đang sử dụng','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO02','RO','In use','');</v>
+        <v>RO02','RO','Đang sử dụng','');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f>$C$20&amp;$C$21&amp;C29</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Cleaning','');</v>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO03','RO','Đạng dọn','');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO03','RO','Cleaning','');</v>
+        <v>RO03','RO','Đạng dọn','');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30" si="2">$C$20&amp;$C$21&amp;C30</f>
-        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Fixing','');</v>
+        <f>$C$20&amp;$C$21&amp;C30</f>
+        <v>INSERT INTO tbl_status( status_id,status_type,status_name,description) VALUES('RO04','RO','Sửa chữa','');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO04','RO','Fixing','');</v>
+        <v>RO04','RO','Sửa chữa','');</v>
       </c>
     </row>
   </sheetData>
@@ -5305,425 +5531,1169 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M26"/>
+  <dimension ref="A3:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="3" max="4" width="12.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9" style="23"/>
+    <col min="6" max="6" width="13" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="36" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="30"/>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="45" t="s">
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="31"/>
+      <c r="C4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="32"/>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="32"/>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="45" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="32"/>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="32"/>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="32"/>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="32"/>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="45" t="s">
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="32"/>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="32"/>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="32"/>
+      <c r="C14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="45" t="s">
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="32"/>
+      <c r="C15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20170825</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20170829</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="D15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="23">
+      <c r="F15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="32"/>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="F16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>20170826</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20170830</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="35">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="L6" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="23">
+      <c r="F25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="F26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="35">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>20170905</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20170909</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="35">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="35">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="35">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="35">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="35">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="35">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="35">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="23">
+      <c r="F35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="35">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>20170901</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20170905</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="23">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20170910</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20170913</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="L9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="23">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20170912</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20170914</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="23">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20170913</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20170918</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="L11" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="23" t="str">
-        <f xml:space="preserve"> "INSERT INTO tbl_reservation("</f>
-        <v>INSERT INTO tbl_reservation(</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23" t="str">
-        <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','1','20170825','20170829','1','2','0','');</v>
-      </c>
-      <c r="C20" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','1','20170825','20170829','1','2','0','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23" t="str">
-        <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','2','20170826','20170830','2','3','0','');</v>
-      </c>
-      <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','2','20170826','20170830','2','3','0','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="23" t="str">
+      <c r="F37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="35">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="35">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="35">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="35">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="35">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="35">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="35">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="19"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="23" t="str">
+        <f xml:space="preserve"> "INSERT INTO tbl_room("</f>
+        <v>INSERT INTO tbl_room(</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="23" t="str">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="23" t="str">
+        <f>$C$47&amp;$C$48&amp;C49</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','P101');</v>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
+        <v>RO001','RT01','1','RO01','P101');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="23" t="str">
+        <f t="shared" ref="A50:A56" si="0">$C$47&amp;$C$48&amp;C50</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','P102');</v>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f t="shared" ref="C50:C88" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <v>RO002','RT01','1','RO01','P102');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','3','20170905','20170909','3','4','0','');</v>
-      </c>
-      <c r="C22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS01','3','20170905','20170909','3','4','0','');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="23" t="str">
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','P103');</v>
+      </c>
+      <c r="C51" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO003','RT01','1','RO01','P103');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','4','20170901','20170905','2','3','0','');</v>
-      </c>
-      <c r="C23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS01','4','20170901','20170905','2','3','0','');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="23" t="str">
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','P104');</v>
+      </c>
+      <c r="C52" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO004','RT01','1','RO01','P104');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','5','20170910','20170913','1','1','0','');</v>
-      </c>
-      <c r="C24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS01','5','20170910','20170913','1','1','0','');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="23" t="str">
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','P105');</v>
+      </c>
+      <c r="C53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO005','RT01','1','RO01','P105');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170914','2','2','0','');</v>
-      </c>
-      <c r="C25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS01','6','20170912','20170914','2','2','0','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="23" t="str">
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT01','1','RO01','P106');</v>
+      </c>
+      <c r="C54" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO006','RT01','1','RO01','P106');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','7','20170913','20170918','1','2','0','');</v>
-      </c>
-      <c r="C26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RS01','7','20170913','20170918','1','2','0','');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT01','1','RO01','P107');</v>
+      </c>
+      <c r="C55" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO007','RT01','1','RO01','P107');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT01','1','RO01','P108');</v>
+      </c>
+      <c r="C56" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO008','RT01','1','RO01','P108');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="23" t="str">
+        <f t="shared" ref="A57:A65" si="2">$C$47&amp;$C$48&amp;C57</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT01','1','RO01','P109');</v>
+      </c>
+      <c r="C57" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO009','RT01','1','RO01','P109');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT01','1','RO01','P110');</v>
+      </c>
+      <c r="C58" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO010','RT01','1','RO01','P110');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT02','2','RO01','P201');</v>
+      </c>
+      <c r="C59" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO011','RT02','2','RO01','P201');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT02','2','RO01','P202');</v>
+      </c>
+      <c r="C60" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO012','RT02','2','RO01','P202');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT02','2','RO01','P203');</v>
+      </c>
+      <c r="C61" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO013','RT02','2','RO01','P203');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT02','2','RO01','P204');</v>
+      </c>
+      <c r="C62" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO014','RT02','2','RO01','P204');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT02','2','RO01','P205');</v>
+      </c>
+      <c r="C63" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO015','RT02','2','RO01','P205');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT02','2','RO01','P206');</v>
+      </c>
+      <c r="C64" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO016','RT02','2','RO01','P206');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT02','2','RO01','P207');</v>
+      </c>
+      <c r="C65" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO017','RT02','2','RO01','P207');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="23" t="str">
+        <f t="shared" ref="A66:A88" si="3">$C$47&amp;$C$48&amp;C66</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT02','2','RO01','P208');</v>
+      </c>
+      <c r="C66" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO018','RT02','2','RO01','P208');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT02','2','RO01','P209');</v>
+      </c>
+      <c r="C67" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO019','RT02','2','RO01','P209');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT02','2','RO01','P210');</v>
+      </c>
+      <c r="C68" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO020','RT02','2','RO01','P210');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT03','3','RO01','P301');</v>
+      </c>
+      <c r="C69" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO021','RT03','3','RO01','P301');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO022','RT03','3','RO01','P302');</v>
+      </c>
+      <c r="C70" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO022','RT03','3','RO01','P302');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO023','RT03','3','RO01','P303');</v>
+      </c>
+      <c r="C71" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO023','RT03','3','RO01','P303');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO024','RT03','3','RO01','P304');</v>
+      </c>
+      <c r="C72" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO024','RT03','3','RO01','P304');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO025','RT03','3','RO01','P305');</v>
+      </c>
+      <c r="C73" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO025','RT03','3','RO01','P305');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO026','RT03','3','RO01','P306');</v>
+      </c>
+      <c r="C74" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO026','RT03','3','RO01','P306');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO027','RT03','3','RO01','P307');</v>
+      </c>
+      <c r="C75" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO027','RT03','3','RO01','P307');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO028','RT03','3','RO01','P308');</v>
+      </c>
+      <c r="C76" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO028','RT03','3','RO01','P308');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO029','RT03','3','RO01','P309');</v>
+      </c>
+      <c r="C77" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO029','RT03','3','RO01','P309');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO030','RT03','3','RO01','P310');</v>
+      </c>
+      <c r="C78" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO030','RT03','3','RO01','P310');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A79" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO031','RT04','4','RO01','P401');</v>
+      </c>
+      <c r="C79" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO031','RT04','4','RO01','P401');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO032','RT04','4','RO01','P402');</v>
+      </c>
+      <c r="C80" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO032','RT04','4','RO01','P402');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO033','RT04','4','RO01','P403');</v>
+      </c>
+      <c r="C81" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO033','RT04','4','RO01','P403');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO034','RT04','4','RO01','P404');</v>
+      </c>
+      <c r="C82" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO034','RT04','4','RO01','P404');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A83" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO035','RT04','4','RO01','P405');</v>
+      </c>
+      <c r="C83" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO035','RT04','4','RO01','P405');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A84" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO036','RT04','4','RO01','P406');</v>
+      </c>
+      <c r="C84" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO036','RT04','4','RO01','P406');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A85" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO037','RT04','4','RO01','P407');</v>
+      </c>
+      <c r="C85" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO037','RT04','4','RO01','P407');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A86" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO038','RT04','4','RO01','P408');</v>
+      </c>
+      <c r="C86" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO038','RT04','4','RO01','P408');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A87" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO039','RT04','4','RO01','P409');</v>
+      </c>
+      <c r="C87" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO039','RT04','4','RO01','P409');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A88" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO040','RT04','4','RO01','P410');</v>
+      </c>
+      <c r="C88" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>RO040','RT04','4','RO01','P410');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5731,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5754,91 +6724,91 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="51" t="s">
+      <c r="E3" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>161</v>
+      <c r="N4" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -5866,11 +6836,11 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>190</v>
+      <c r="N5" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="50" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -5898,11 +6868,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>191</v>
+      <c r="N6" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -5930,11 +6900,11 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>192</v>
+      <c r="N7" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -5962,11 +6932,11 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="52" t="s">
-        <v>193</v>
+      <c r="N8" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -5994,11 +6964,11 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="O9" s="52" t="s">
-        <v>194</v>
+      <c r="N9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -6026,11 +6996,11 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>195</v>
+      <c r="N10" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -6058,11 +7028,11 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" s="52" t="s">
-        <v>196</v>
+      <c r="N11" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -6090,11 +7060,11 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="O12" s="52" t="s">
-        <v>197</v>
+      <c r="N12" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -6122,11 +7092,11 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>198</v>
+      <c r="N13" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -6154,11 +7124,11 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="O14" s="52" t="s">
-        <v>199</v>
+      <c r="N14" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -6186,11 +7156,11 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" s="52" t="s">
-        <v>200</v>
+      <c r="N15" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6218,11 +7188,11 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="O16" s="52" t="s">
-        <v>201</v>
+      <c r="N16" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:15">

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="invoice_detail" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2791,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3118,158 +3117,158 @@
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','1','1','','440000','1','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','1','1','','440000','1','','','','');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"');"</f>
-        <v>','1','1','','440000','1','','','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
+        <v>','1','1','','440000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="23" t="str">
-        <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','2','2','','880000','1','','','');</v>
+        <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','2','2','','880000','1','','','','');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"');"</f>
-        <v>','2','2','','880000','1','','','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f t="shared" ref="C26:C31" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
+        <v>','2','2','','880000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','3','3','','1320000','1','','','','');</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I13&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>','3','3','','1320000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="23" t="e">
-        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;#REF!&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','4','4','','880000','1','','','','');</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>','4','4','','880000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','5','5','','330000','1','','','','');</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>""&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"','"&amp;I14&amp;"','"&amp;J14&amp;"','"&amp;K14&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>','5','5','','330000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','6','6','','440000','1','','','','');</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f>""&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"','"&amp;I15&amp;"','"&amp;J15&amp;"','"&amp;K15&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>','6','6','','440000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','7','7','','550000','1','','','','');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f>""&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;H16&amp;"','"&amp;I16&amp;"','"&amp;J16&amp;"','"&amp;K16&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>','7','7','','550000','1','','','','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="23" t="str">
-        <f t="shared" ref="A32:A39" si="1">$C$23&amp;$C$24&amp;C32</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I13&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="23" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" s="23" t="e">
-        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;#REF!&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"');"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <f t="shared" ref="C26:C39" si="2">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"');"</f>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f>""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f>""&amp;C20&amp;"','"&amp;D20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f>""&amp;C21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"','"&amp;F21&amp;"','"&amp;G21&amp;"','"&amp;H21&amp;"','"&amp;I21&amp;"','"&amp;J21&amp;"','"&amp;K21&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="23" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="23" t="e">
-        <f>""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;#REF!&amp;"','"&amp;#REF!&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1">
       <c r="A38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
-        <f>""&amp;C18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"','"&amp;G18&amp;"','"&amp;H18&amp;"','"&amp;I18&amp;"','"&amp;J18&amp;"','"&amp;K18&amp;"');"</f>
-        <v>','','','','','','','','');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1">
       <c r="A39" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f>""&amp;C19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"');"</f>
-        <v>','','','','','','','','');</v>
+        <f t="shared" si="2"/>
+        <v>','','','','','','','','','');</v>
       </c>
     </row>
   </sheetData>
@@ -3282,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C19:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3649,24 +3648,24 @@
     </row>
     <row r="24" spans="1:3">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('</v>
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('1','RO001','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','400000','','');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','RO001','Room','1','400000','','400000','');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','RO001','Room','1','400000','','400000','','');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('2','RO002','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','400000','');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" ref="C26:C39" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
@@ -3676,7 +3675,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('2','RO003','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','400000','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3686,7 +3685,7 @@
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO001','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','400000','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3696,7 +3695,7 @@
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO002','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','400000','');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f>""&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E11&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I11&amp;"','"&amp;J9&amp;"');"</f>
@@ -3706,7 +3705,7 @@
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('3','RO003','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','400000','');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f>""&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E12&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I12&amp;"','"&amp;J10&amp;"');"</f>
@@ -3736,7 +3735,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('5','RO001','Room','1','300000','','300000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','300000','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3746,7 +3745,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('6','RO002','Room','1','200000','','200000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','200000','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3756,7 +3755,7 @@
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('6','RO003','Room','1','200000','','200000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','200000','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3766,7 +3765,7 @@
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('7','RO004','Room','1','500000','','500000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','500000','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3776,7 +3775,7 @@
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3786,7 +3785,7 @@
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="1"/>
@@ -3796,7 +3795,7 @@
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd) VALUES('','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="1"/>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -862,6 +862,27 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>2017/08/13</t>
+  </si>
+  <si>
+    <t>2017/08/14</t>
+  </si>
+  <si>
+    <t>2017/08/16</t>
+  </si>
+  <si>
+    <t>2017/08/17</t>
+  </si>
+  <si>
+    <t>2017/08/18</t>
+  </si>
+  <si>
+    <t>2017/08/19</t>
+  </si>
+  <si>
+    <t>2017/08/15</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2906,9 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -2899,16 +2922,22 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="50" t="s">
+        <v>272</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="50" t="s">
+        <v>272</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
@@ -2922,16 +2951,22 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="50" t="s">
+        <v>273</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="50" t="s">
+        <v>273</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -2945,16 +2980,22 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>278</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="50" t="s">
+        <v>278</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -2968,16 +3009,22 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="50" t="s">
+        <v>274</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="50" t="s">
+        <v>274</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
@@ -2991,16 +3038,22 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="50" t="s">
+        <v>275</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="50" t="s">
+        <v>275</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
@@ -3014,16 +3067,22 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>276</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="50" t="s">
+        <v>276</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
@@ -3037,9 +3096,13 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="50" t="s">
+        <v>277</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="50" t="s">
+        <v>277</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12">
@@ -3117,84 +3180,84 @@
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','1','1','','440000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','1','1','1','','440000','1','2017/08/13','','2017/08/13','');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
-        <v>','1','1','','440000','1','','','','');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
+        <v>1','1','1','1','','440000','1','2017/08/13','','2017/08/13','');</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','2','2','','880000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('2','1','2','2','','880000','1','2017/08/14','','2017/08/14','');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C31" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
-        <v>','2','2','','880000','1','','','','');</v>
+        <f t="shared" ref="C26:C31" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
+        <v>2','1','2','2','','880000','1','2017/08/14','','2017/08/14','');</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','3','3','','1320000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('3','1','3','3','','1320000','1','2017/08/15','','2017/08/15','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','3','3','','1320000','1','','','','');</v>
+        <v>3','1','3','3','','1320000','1','2017/08/15','','2017/08/15','');</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','4','4','','880000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('4','1','4','4','','880000','1','2017/08/16','','2017/08/16','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','4','4','','880000','1','','','','');</v>
+        <v>4','1','4','4','','880000','1','2017/08/16','','2017/08/16','');</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','5','5','','330000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('5','1','5','5','','330000','1','2017/08/17','','2017/08/17','');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','5','5','','330000','1','','','','');</v>
+        <v>5','1','5','5','','330000','1','2017/08/17','','2017/08/17','');</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','6','6','','440000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('6','1','6','6','','440000','1','2017/08/18','','2017/08/18','');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','6','6','','440000','1','','','','');</v>
+        <v>6','1','6','6','','440000','1','2017/08/18','','2017/08/18','');</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','7','7','','550000','1','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('7','1','7','7','','550000','1','2017/08/19','','2017/08/19','');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>','7','7','','550000','1','','','','');</v>
+        <v>7','1','7','7','','550000','1','2017/08/19','','2017/08/19','');</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" ref="C26:C39" si="2">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"');"</f>
@@ -3204,7 +3267,7 @@
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3214,7 +3277,7 @@
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3224,7 +3287,7 @@
     <row r="35" spans="1:3" ht="18.75" customHeight="1">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3234,7 +3297,7 @@
     <row r="36" spans="1:3" ht="18.75" customHeight="1">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3244,7 +3307,7 @@
     <row r="37" spans="1:3" ht="18.75" customHeight="1">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3254,7 +3317,7 @@
     <row r="38" spans="1:3" ht="18.75" customHeight="1">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3264,7 +3327,7 @@
     <row r="39" spans="1:3" ht="18.75" customHeight="1">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3281,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3297,7 +3360,8 @@
     <col min="8" max="8" width="14.85546875" style="23" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="11" max="11" width="12.85546875" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
@@ -3385,7 +3449,12 @@
       <c r="I5" s="1">
         <v>400000</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1"/>
@@ -3408,7 +3477,12 @@
       <c r="I6" s="1">
         <v>400000</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1"/>
@@ -3431,7 +3505,12 @@
       <c r="I7" s="1">
         <v>400000</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1"/>
@@ -3454,7 +3533,12 @@
       <c r="I8" s="1">
         <v>400000</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1"/>
@@ -3477,7 +3561,12 @@
       <c r="I9" s="1">
         <v>400000</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1"/>
@@ -3500,7 +3589,12 @@
       <c r="I10" s="1">
         <v>400000</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1"/>
@@ -3523,7 +3617,12 @@
       <c r="I11" s="1">
         <v>400000</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="1"/>
@@ -3546,7 +3645,12 @@
       <c r="I12" s="1">
         <v>400000</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="1"/>
@@ -3569,7 +3673,12 @@
       <c r="I13" s="1">
         <v>300000</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="1"/>
@@ -3592,7 +3701,12 @@
       <c r="I14" s="1">
         <v>200000</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1"/>
@@ -3615,7 +3729,12 @@
       <c r="I15" s="1">
         <v>200000</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1"/>
@@ -3638,7 +3757,12 @@
       <c r="I16" s="1">
         <v>500000</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" s="23" t="str">
@@ -3655,155 +3779,156 @@
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','400000','','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','RO001','Room','1','400000','','400000','','');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"');"</f>
+        <v>1','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" ref="A26:A31" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','400000','');</v>
+        <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C39" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>2','RO002','Room','1','400000','','400000','');</v>
+        <f t="shared" ref="C26:C36" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"');"</f>
+        <v>2','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>2','RO003','Room','1','400000','','400000','');</v>
+        <v>2','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','RO001','Room','1','400000','','400000','');</v>
+        <v>3','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>""&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E11&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I11&amp;"','"&amp;J9&amp;"');"</f>
-        <v>3','RO002','Room','1','400000','','400000','');</v>
+        <f t="shared" si="1"/>
+        <v>3','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','400000','');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f>""&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E12&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I12&amp;"','"&amp;J10&amp;"');"</f>
-        <v>3','RO003','Room','1','400000','','400000','');</v>
+        <f t="shared" si="1"/>
+        <v>3','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23" t="e">
+      <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="23" t="e">
-        <f>""&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;#REF!&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;#REF!&amp;"','"&amp;J11&amp;"');"</f>
-        <v>#REF!</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('4','RO004','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>4','RO004','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23" t="e">
-        <f t="shared" ref="A32:A39" si="2">$C$23&amp;$C$24&amp;C32</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="23" t="e">
-        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;#REF!&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;#REF!&amp;"','"&amp;J12&amp;"');"</f>
-        <v>#REF!</v>
+      <c r="A32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('4','RO005','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>4','RO005','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','300000','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','300000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','RO001','Room','1','300000','','300000','');</v>
+        <v>5','RO001','Room','1','300000','','300000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','200000','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO002','Room','1','200000','','200000','');</v>
+        <v>6','RO002','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','200000','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','RO003','Room','1','200000','','200000','');</v>
+        <v>6','RO003','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','500000','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','500000','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','RO004','Room','1','500000','','500000','');</v>
+        <v>7','RO004','Room','1','500000','','500000','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <f t="shared" ref="C26:C39" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
-      </c>
-      <c r="C38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+      </c>
+      <c r="C39" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','');</v>
-      </c>
-      <c r="C39" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>','','','','','','','');</v>
+        <v>','','','','','','','','');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5093,7 +5218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
@@ -5270,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5532,8 +5657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="306">
   <si>
     <t>login_pwd</t>
     <phoneticPr fontId="0"/>
@@ -883,13 +883,94 @@
   </si>
   <si>
     <t>2017/08/15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>/img/single.jpg</t>
+  </si>
+  <si>
+    <t>/img/double.jpg</t>
+  </si>
+  <si>
+    <t>/img/twins.jpg</t>
+  </si>
+  <si>
+    <t>/img/extra.jpg</t>
+  </si>
+  <si>
+    <t>0126498784</t>
+  </si>
+  <si>
+    <t>0189484546</t>
+  </si>
+  <si>
+    <t>0184328447</t>
+  </si>
+  <si>
+    <t>0126448484</t>
+  </si>
+  <si>
+    <t>0124848447</t>
+  </si>
+  <si>
+    <t>0135847474</t>
+  </si>
+  <si>
+    <t>0139678563</t>
+  </si>
+  <si>
+    <t>0126491311</t>
+  </si>
+  <si>
+    <t>0841318413</t>
+  </si>
+  <si>
+    <t>0511974121</t>
+  </si>
+  <si>
+    <t>0648413161</t>
+  </si>
+  <si>
+    <t>0884131988</t>
+  </si>
+  <si>
+    <t>0651987841</t>
+  </si>
+  <si>
+    <t>0484216848</t>
+  </si>
+  <si>
+    <t>2017/08/20</t>
+  </si>
+  <si>
+    <t>2017/08/21</t>
+  </si>
+  <si>
+    <t>2017/08/22</t>
+  </si>
+  <si>
+    <t>2017/08/23</t>
+  </si>
+  <si>
+    <t>2017/08/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,15 +1128,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -1091,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,14 +1194,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1195,13 +1261,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,10 +1349,7 @@
     <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,7 +1360,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1301,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,18 +1409,22 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2045,78 +2123,78 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="45" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2147,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2181,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2215,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="39" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2249,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2283,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="39" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2317,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2351,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="39" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2450,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
@@ -2459,7 +2537,7 @@
     <col min="1" max="1" width="3.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="23" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
@@ -2528,18 +2606,20 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="1">
-        <v>126491311</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="1">
-        <v>123456789</v>
+      <c r="F5" s="49" t="s">
+        <v>287</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>137</v>
@@ -2555,18 +2635,20 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="1">
-        <v>841318413</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="1">
-        <v>123456789</v>
+      <c r="F6" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>137</v>
@@ -2582,18 +2664,20 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="1">
-        <v>511974121</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="1">
-        <v>123456789</v>
+      <c r="F7" s="49" t="s">
+        <v>289</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>137</v>
@@ -2609,18 +2693,20 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="1">
-        <v>648413161</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="1">
-        <v>123456789</v>
+      <c r="F8" s="49" t="s">
+        <v>290</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>137</v>
@@ -2636,18 +2722,20 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="1">
-        <v>884131988</v>
-      </c>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="1">
-        <v>123456789</v>
+      <c r="F9" s="49" t="s">
+        <v>291</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>137</v>
@@ -2663,18 +2751,20 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="1">
-        <v>651987841</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="1">
-        <v>123456789</v>
+      <c r="F10" s="49" t="s">
+        <v>292</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>137</v>
@@ -2690,18 +2780,20 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="1">
-        <v>484216848</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="1">
-        <v>123456789</v>
+      <c r="F11" s="49" t="s">
+        <v>293</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>137</v>
@@ -2724,78 +2816,78 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> name,phone,mail,identity_card,company,address,company_phone,country) VALUES('</v>
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Vũ Trần Hoàng','126491311','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('1','Vũ Trần Hoàng','0126491311','hung@gmail','0126498784','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>Vũ Trần Hoàng','126491311','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','Vũ Trần Hoàng','0126491311','hung@gmail','0126498784','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Nguyễn Việt Hưng','841318413','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('2','Nguyễn Việt Hưng','0841318413','hung@gmail','0189484546','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>Nguyễn Việt Hưng','841318413','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <f t="shared" ref="C21:C26" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>2','Nguyễn Việt Hưng','0841318413','hung@gmail','0189484546','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Đặng Công Sơn','511974121','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('3','Đặng Công Sơn','0511974121','hung@gmail','0184328447','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Đặng Công Sơn','511974121','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>3','Đặng Công Sơn','0511974121','hung@gmail','0184328447','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Trân Bá Quyền','648413161','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('4','Trân Bá Quyền','0648413161','hung@gmail','0126448484','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Trân Bá Quyền','648413161','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>4','Trân Bá Quyền','0648413161','hung@gmail','0126448484','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Đang Đức Mạnh','884131988','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('5','Đang Đức Mạnh','0884131988','hung@gmail','0124848447','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Đang Đức Mạnh','884131988','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>5','Đang Đức Mạnh','0884131988','hung@gmail','0124848447','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Do Hong Khoi','651987841','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('6','Do Hong Khoi','0651987841','hung@gmail','0135847474','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Do Hong Khoi','651987841','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>6','Do Hong Khoi','0651987841','hung@gmail','0135847474','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_guest( name,phone,mail,identity_card,company,address,company_phone,country) VALUES('Tran Dang Loi','484216848','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>INSERT INTO tbl_guest( id,name,phone,mail,identity_card,company,address,company_phone,country) VALUES('7','Tran Dang Loi','0484216848','hung@gmail','0139678563','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Tran Dang Loi','484216848','hung@gmail','123456789','FPT','Hoa Lac','123456566','Vietnam');</v>
+        <v>7','Tran Dang Loi','0484216848','hung@gmail','0139678563','FPT','Hoa Lac','123456566','Vietnam');</v>
       </c>
     </row>
   </sheetData>
@@ -2811,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2842,65 +2934,57 @@
       <c r="D3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="51" t="s">
+      <c r="G3" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="H3" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="I3" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="J3" s="38" t="s">
         <v>156</v>
       </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>85</v>
-      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1">
@@ -2912,23 +2996,19 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>440000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="50" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="49" t="s">
         <v>272</v>
       </c>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12">
@@ -2941,23 +3021,19 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>880000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="50" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="49" t="s">
         <v>273</v>
       </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12">
@@ -2970,23 +3046,19 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>1320000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="50" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="49" t="s">
         <v>278</v>
       </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12">
@@ -2999,23 +3071,19 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>880000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="50" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="49" t="s">
         <v>274</v>
       </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12">
@@ -3028,23 +3096,19 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>5</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>330000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="50" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="49" t="s">
         <v>275</v>
       </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12">
@@ -3057,23 +3121,19 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>6</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>440000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="50" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="49" t="s">
         <v>276</v>
       </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12">
@@ -3086,30 +3146,26 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>7</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>550000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="50" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="49" t="s">
         <v>277</v>
       </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="54"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3121,7 +3177,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="54"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3134,7 +3190,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="54"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3147,7 +3203,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="54"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3160,7 +3216,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="54"/>
+      <c r="E16" s="53"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3168,7 +3224,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="E17" s="55"/>
+      <c r="E17" s="54"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -3180,94 +3236,94 @@
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','1','1','1','','440000','1','2017/08/13','','2017/08/13','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','1','1','1','','2017/08/13','','2017/08/13','');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"');"</f>
-        <v>1','1','1','1','','440000','1','2017/08/13','','2017/08/13','');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','1','1','1','','2017/08/13','','2017/08/13','');</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('2','1','2','2','','880000','1','2017/08/14','','2017/08/14','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('2','1','2','2','','2017/08/14','','2017/08/14','');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C31" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"');"</f>
-        <v>2','1','2','2','','880000','1','2017/08/14','','2017/08/14','');</v>
+        <f t="shared" ref="C26:C31" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>2','1','2','2','','2017/08/14','','2017/08/14','');</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('3','1','3','3','','1320000','1','2017/08/15','','2017/08/15','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('3','1','3','3','','2017/08/15','','2017/08/15','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','1','3','3','','1320000','1','2017/08/15','','2017/08/15','');</v>
+        <v>3','1','3','3','','2017/08/15','','2017/08/15','');</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('4','1','4','4','','880000','1','2017/08/16','','2017/08/16','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('4','1','4','4','','2017/08/16','','2017/08/16','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','1','4','4','','880000','1','2017/08/16','','2017/08/16','');</v>
+        <v>4','1','4','4','','2017/08/16','','2017/08/16','');</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('5','1','5','5','','330000','1','2017/08/17','','2017/08/17','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('5','1','5','5','','2017/08/17','','2017/08/17','');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','1','5','5','','330000','1','2017/08/17','','2017/08/17','');</v>
+        <v>5','1','5','5','','2017/08/17','','2017/08/17','');</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('6','1','6','6','','440000','1','2017/08/18','','2017/08/18','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('6','1','6','6','','2017/08/18','','2017/08/18','');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','1','6','6','','440000','1','2017/08/18','','2017/08/18','');</v>
+        <v>6','1','6','6','','2017/08/18','','2017/08/18','');</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('7','1','7','7','','550000','1','2017/08/19','','2017/08/19','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('7','1','7','7','','2017/08/19','','2017/08/19','');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','1','7','7','','550000','1','2017/08/19','','2017/08/19','');</v>
+        <v>7','1','7','7','','2017/08/19','','2017/08/19','');</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" ref="C26:C39" si="2">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"');"</f>
+        <f t="shared" ref="C32:C39" si="2">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"');"</f>
         <v>','','','','','','','','','');</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3277,7 +3333,7 @@
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3287,7 +3343,7 @@
     <row r="35" spans="1:3" ht="18.75" customHeight="1">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3297,7 +3353,7 @@
     <row r="36" spans="1:3" ht="18.75" customHeight="1">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3307,7 +3363,7 @@
     <row r="37" spans="1:3" ht="18.75" customHeight="1">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3317,7 +3373,7 @@
     <row r="38" spans="1:3" ht="18.75" customHeight="1">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3327,7 +3383,7 @@
     <row r="39" spans="1:3" ht="18.75" customHeight="1">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,amount_total,payment_flag,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3342,9 +3398,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K39"/>
+  <dimension ref="A3:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A36"/>
     </sheetView>
   </sheetViews>
@@ -3361,74 +3417,102 @@
     <col min="9" max="9" width="17.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="23" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B3" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="O3" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="O4" s="51" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:15">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>1</v>
@@ -3436,7 +3520,7 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F5" s="1">
@@ -3447,16 +3531,23 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <f>G5+(G5*10/100)</f>
+        <v>440000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="O5" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:15">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>2</v>
@@ -3464,7 +3555,7 @@
       <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F6" s="1">
@@ -3475,16 +3566,23 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <f t="shared" ref="I6:I16" si="0">G6+(G6*10/100)</f>
+        <v>440000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>2</v>
@@ -3492,7 +3590,7 @@
       <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F7" s="1">
@@ -3503,16 +3601,23 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>3</v>
@@ -3520,7 +3625,7 @@
       <c r="D8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F8" s="1">
@@ -3531,16 +3636,23 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>3</v>
@@ -3548,7 +3660,7 @@
       <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F9" s="1">
@@ -3559,16 +3671,23 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>3</v>
@@ -3576,7 +3695,7 @@
       <c r="D10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F10" s="1">
@@ -3587,16 +3706,23 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>4</v>
@@ -3604,7 +3730,7 @@
       <c r="D11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F11" s="1">
@@ -3615,16 +3741,23 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>4</v>
@@ -3632,7 +3765,7 @@
       <c r="D12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F12" s="1">
@@ -3643,16 +3776,23 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>5</v>
@@ -3660,7 +3800,7 @@
       <c r="D13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F13" s="1">
@@ -3671,16 +3811,23 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>300000</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>330000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>6</v>
@@ -3688,7 +3835,7 @@
       <c r="D14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F14" s="1">
@@ -3699,16 +3846,23 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>200000</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>6</v>
@@ -3716,7 +3870,7 @@
       <c r="D15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F15" s="1">
@@ -3727,16 +3881,23 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>200000</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>7</v>
@@ -3744,7 +3905,7 @@
       <c r="D16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>271</v>
       </c>
       <c r="F16" s="1">
@@ -3755,13 +3916,20 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
-        <v>500000</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>272</v>
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="O16" s="49" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3772,144 +3940,144 @@
     </row>
     <row r="24" spans="1:3">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('</v>
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"');"</f>
-        <v>1','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"');"</f>
+        <v>1','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" ref="A26:A39" si="1">$C$23&amp;$C$24&amp;C26</f>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/14','2017/08/14');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C36" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"');"</f>
-        <v>2','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"','"&amp;N6&amp;"','"&amp;O6&amp;"');"</f>
+        <v>2','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/14','2017/08/14');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/15','2017/08/15');</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>2','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"');"</f>
+        <v>2','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/15','2017/08/15');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/16','2017/08/16');</v>
       </c>
       <c r="C28" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO001','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"');"</f>
+        <v>3','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/16','2017/08/16');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/17','2017/08/17');</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO002','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"','"&amp;K9&amp;"','"&amp;L9&amp;"','"&amp;M9&amp;"','"&amp;N9&amp;"','"&amp;O9&amp;"');"</f>
+        <v>3','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/17','2017/08/17');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/18','2017/08/18');</v>
       </c>
       <c r="C30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>3','RO003','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"','"&amp;L10&amp;"','"&amp;M10&amp;"','"&amp;N10&amp;"','"&amp;O10&amp;"');"</f>
+        <v>3','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/18','2017/08/18');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('4','RO004','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO004','Room','1','400000','','440000','RO004','1','','','2017/08/19','2017/08/19');</v>
       </c>
       <c r="C31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>4','RO004','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"','"&amp;K11&amp;"','"&amp;L11&amp;"','"&amp;M11&amp;"','"&amp;N11&amp;"','"&amp;O11&amp;"');"</f>
+        <v>4','RO004','Room','1','400000','','440000','RO004','1','','','2017/08/19','2017/08/19');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('4','RO005','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO005','Room','1','400000','','440000','RO005','1','','','2017/08/20','2017/08/20');</v>
       </c>
       <c r="C32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>4','RO005','Room','1','400000','','400000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"','"&amp;M12&amp;"','"&amp;N12&amp;"','"&amp;O12&amp;"');"</f>
+        <v>4','RO005','Room','1','400000','','440000','RO005','1','','','2017/08/20','2017/08/20');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','300000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','330000','RO001','1','','','2017/08/21','2017/08/21');</v>
       </c>
       <c r="C33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>5','RO001','Room','1','300000','','300000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;I13&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"','"&amp;L13&amp;"','"&amp;M13&amp;"','"&amp;N13&amp;"','"&amp;O13&amp;"');"</f>
+        <v>5','RO001','Room','1','300000','','330000','RO001','1','','','2017/08/21','2017/08/21');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','220000','RO002','1','','','2017/08/22','2017/08/22');</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>6','RO002','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"','"&amp;I14&amp;"','"&amp;J14&amp;"','"&amp;K14&amp;"','"&amp;L14&amp;"','"&amp;M14&amp;"','"&amp;N14&amp;"','"&amp;O14&amp;"');"</f>
+        <v>6','RO002','Room','1','200000','','220000','RO002','1','','','2017/08/22','2017/08/22');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','220000','RO003','1','','','2017/08/23','2017/08/23');</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>6','RO003','Room','1','200000','','200000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"','"&amp;I15&amp;"','"&amp;J15&amp;"','"&amp;K15&amp;"','"&amp;L15&amp;"','"&amp;M15&amp;"','"&amp;N15&amp;"','"&amp;O15&amp;"');"</f>
+        <v>6','RO003','Room','1','200000','','220000','RO003','1','','','2017/08/23','2017/08/23');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','500000','2017/08/13','2017/08/13');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','550000','RO004','1','','','2017/08/24','2017/08/24');</v>
       </c>
       <c r="C36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>7','RO004','Room','1','500000','','500000','2017/08/13','2017/08/13');</v>
+        <f>""&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"','"&amp;I16&amp;"','"&amp;J16&amp;"','"&amp;K16&amp;"','"&amp;L16&amp;"','"&amp;M16&amp;"','"&amp;N16&amp;"','"&amp;O16&amp;"');"</f>
+        <v>7','RO004','Room','1','500000','','550000','RO004','1','','','2017/08/24','2017/08/24');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
-        <f t="shared" ref="C26:C39" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
+        <f t="shared" ref="C37:C39" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3918,8 +4086,8 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="2"/>
@@ -5216,119 +5384,214 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="33" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B3" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="28" t="s">
+      <c r="I3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="I4" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="G5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="G6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="1">
+        <v>700000</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="1">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="G8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:10">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:10">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5342,48 +5605,48 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="21" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> room_type_id,type_name,description,price) VALUES('</v>
+        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> room_type_id,type_name,adult,children,description,image_url,price,create_ymd,update_ymd) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT01','Single','Phòng có 1 giường đơn','100000');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,adult,children,description,image_url,price,create_ymd,update_ymd) VALUES('RT01','Single','1','1','Phòng có 1 giường đơn','/img/single.jpg','400000','2017/08/20','2017/08/21');</v>
       </c>
       <c r="C20" s="21" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"');"</f>
-        <v>RT01','Single','Phòng có 1 giường đơn','100000');</v>
+        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>RT01','Single','1','1','Phòng có 1 giường đơn','/img/single.jpg','400000','2017/08/20','2017/08/21');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,adult,children,description,image_url,price,create_ymd,update_ymd) VALUES('RT02','Double','2','1','Phòng có 1 giường đôi Queen size','/img/double.jpg','600000','2017/08/20','2017/08/21');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"');"</f>
-        <v>RT02','Double','Phòng có 1 giường đôi Queen size','200000');</v>
+        <f t="shared" ref="C21:C23" si="0">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>RT02','Double','2','1','Phòng có 1 giường đôi Queen size','/img/double.jpg','600000','2017/08/20','2017/08/21');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C22</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT03','Twins','Phòng có 2 giường đơn','300000');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,adult,children,description,image_url,price,create_ymd,update_ymd) VALUES('RT03','Twins','2','1','Phòng có 2 giường đơn','/img/twins.jpg','700000','2017/08/20','2017/08/21');</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>""&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"');"</f>
-        <v>RT03','Twins','Phòng có 2 giường đơn','300000');</v>
+        <f t="shared" si="0"/>
+        <v>RT03','Twins','2','1','Phòng có 2 giường đơn','/img/twins.jpg','700000','2017/08/20','2017/08/21');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="21" t="str">
         <f>$C$18&amp;$C$19&amp;C23</f>
-        <v>INSERT INTO tbl_room_type( room_type_id,type_name,description,price) VALUES('RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
+        <v>INSERT INTO tbl_room_type( room_type_id,type_name,adult,children,description,image_url,price,create_ymd,update_ymd) VALUES('RT04','Extra','4','2','Phòng có 2 giường đôi Queen size','/img/extra.jpg','900000','2017/08/20','2017/08/21');</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>""&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"');"</f>
-        <v>RT04','Extra','Phòng có 2 giường đôi Queen size','400000');</v>
+        <f t="shared" si="0"/>
+        <v>RT04','Extra','4','2','Phòng có 2 giường đôi Queen size','/img/extra.jpg','900000','2017/08/20','2017/08/21');</v>
       </c>
     </row>
   </sheetData>
@@ -5410,16 +5673,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5657,7 +5920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49:A88"/>
     </sheetView>
   </sheetViews>
@@ -5673,7 +5936,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15" t="s">
         <v>78</v>
       </c>
@@ -5691,7 +5954,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="24" t="s">
         <v>77</v>
       </c>
@@ -5709,7 +5972,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
@@ -5727,7 +5990,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="1" t="s">
         <v>130</v>
       </c>
@@ -5745,7 +6008,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
@@ -5763,7 +6026,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
@@ -5781,7 +6044,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
@@ -5799,7 +6062,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5817,7 +6080,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1" t="s">
         <v>135</v>
       </c>
@@ -5835,7 +6098,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
         <v>144</v>
       </c>
@@ -5853,7 +6116,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5871,7 +6134,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="1" t="s">
         <v>160</v>
       </c>
@@ -5889,7 +6152,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="s">
         <v>161</v>
       </c>
@@ -5907,7 +6170,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="1" t="s">
         <v>162</v>
       </c>
@@ -6064,16 +6327,16 @@
       <c r="C25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6081,16 +6344,16 @@
       <c r="C26" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6098,16 +6361,16 @@
       <c r="C27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6115,16 +6378,16 @@
       <c r="C28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="34">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6132,16 +6395,16 @@
       <c r="C29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="34">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="34" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6149,16 +6412,16 @@
       <c r="C30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="34" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6166,16 +6429,16 @@
       <c r="C31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="34">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6183,16 +6446,16 @@
       <c r="C32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="34">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6200,16 +6463,16 @@
       <c r="C33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="34">
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6217,16 +6480,16 @@
       <c r="C34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="34">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="34" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6234,16 +6497,16 @@
       <c r="C35" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="34">
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="34" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6251,16 +6514,16 @@
       <c r="C36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="34">
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="34" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6268,16 +6531,16 @@
       <c r="C37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="34">
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="34" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6285,16 +6548,16 @@
       <c r="C38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="34">
         <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="34" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6302,16 +6565,16 @@
       <c r="C39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="34">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="34" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6319,16 +6582,16 @@
       <c r="C40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="34">
         <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="34" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6336,16 +6599,16 @@
       <c r="C41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="34">
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6353,16 +6616,16 @@
       <c r="C42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="34">
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="34" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6370,16 +6633,16 @@
       <c r="C43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="34">
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6387,16 +6650,16 @@
       <c r="C44" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="34">
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="34" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6848,90 +7111,90 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6960,10 +7223,10 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="49" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6992,10 +7255,10 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="49" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7024,10 +7287,10 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="49" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7056,10 +7319,10 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="O8" s="49" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7088,10 +7351,10 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7120,10 +7383,10 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="49" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7152,10 +7415,10 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="50" t="s">
+      <c r="N11" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="49" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7184,10 +7447,10 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="50" t="s">
+      <c r="O12" s="49" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7216,10 +7479,10 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="49" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7248,16 +7511,16 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="O14" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -7280,16 +7543,16 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="49" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -7312,16 +7575,16 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="49" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7336,8 +7599,8 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7352,8 +7615,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7368,8 +7631,8 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7384,8 +7647,8 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7400,8 +7663,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7416,8 +7679,8 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7432,8 +7695,8 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>

--- a/Database/DataSQL-Demo.xlsx
+++ b/Database/DataSQL-Demo.xlsx
@@ -651,36 +651,6 @@
     <t>updater_nm</t>
   </si>
   <si>
-    <t>P101</t>
-  </si>
-  <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P109</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P104</t>
-  </si>
-  <si>
-    <t>P105</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>P110</t>
-  </si>
-  <si>
     <t>P201</t>
   </si>
   <si>
@@ -964,6 +934,36 @@
   </si>
   <si>
     <t>2017/08/24</t>
+  </si>
+  <si>
+    <t>P501</t>
+  </si>
+  <si>
+    <t>P502</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
+    <t>P504</t>
+  </si>
+  <si>
+    <t>P505</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
+    <t>P507</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P510</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1425,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2105,7 +2106,7 @@
   <dimension ref="A3:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2210,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>20170825</v>
+        <v>20170831</v>
       </c>
       <c r="F5" s="1">
-        <v>20170829</v>
+        <v>20170902</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2244,10 +2245,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>20170826</v>
+        <v>20170831</v>
       </c>
       <c r="F6" s="1">
-        <v>20170830</v>
+        <v>20170903</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2444,78 +2445,78 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="23" t="str">
-        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('</v>
+        <f>" "&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;") VALUES('"</f>
+        <v xml:space="preserve"> status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="str">
         <f>$C$18&amp;$C$19&amp;C20</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','1','20170825','20170829','1','2','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','1','20170831','20170902','1','2','0','','','2017/08/01','2017/08/01');</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>RS01','1','20170825','20170829','1','2','0','');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"');"</f>
+        <v>RS01','1','20170831','20170902','1','2','0','','','2017/08/01','2017/08/01');</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="str">
         <f t="shared" ref="A21:A26" si="0">$C$18&amp;$C$19&amp;C21</f>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','2','20170826','20170830','2','3','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','2','20170831','20170903','2','3','0','','','2017/08/02','2017/08/02');</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>RS01','2','20170826','20170830','2','3','0','');</v>
+        <f t="shared" ref="C21:C26" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"');"</f>
+        <v>RS01','2','20170831','20170903','2','3','0','','','2017/08/02','2017/08/02');</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','3','20170905','20170909','3','4','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','3','20170905','20170909','3','4','0','','','2017/08/03','2017/08/03');</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','3','20170905','20170909','3','4','0','');</v>
+        <v>RS01','3','20170905','20170909','3','4','0','','','2017/08/03','2017/08/03');</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','4','20170901','20170905','2','3','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','4','20170901','20170905','2','3','0','','','2017/08/04','2017/08/04');</v>
       </c>
       <c r="C23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','4','20170901','20170905','2','3','0','');</v>
+        <v>RS01','4','20170901','20170905','2','3','0','','','2017/08/04','2017/08/04');</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','5','20170910','20170913','1','1','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','5','20170910','20170913','1','1','0','','','2017/08/05','2017/08/05');</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','5','20170910','20170913','1','1','0','');</v>
+        <v>RS01','5','20170910','20170913','1','1','0','','','2017/08/05','2017/08/05');</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','6','20170912','20170914','2','2','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','6','20170912','20170914','2','2','0','','','2017/08/06','2017/08/06');</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','6','20170912','20170914','2','2','0','');</v>
+        <v>RS01','6','20170912','20170914','2','2','0','','','2017/08/06','2017/08/06');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note) VALUES('RS01','7','20170913','20170918','1','2','0','');</v>
+        <v>INSERT INTO tbl_reservation( status_id,guest_id,check_in,check_out,number_of_room,number_of_adult,number_of_children,note,editer,update_ymd,create_ymd) VALUES('RS01','7','20170913','20170918','1','2','0','','','2017/08/07','2017/08/07');</v>
       </c>
       <c r="C26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RS01','7','20170913','20170918','1','2','0','');</v>
+        <v>RS01','7','20170913','20170918','1','2','0','','','2017/08/07','2017/08/07');</v>
       </c>
     </row>
   </sheetData>
@@ -2613,13 +2614,13 @@
         <v>139</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>137</v>
@@ -2642,13 +2643,13 @@
         <v>140</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>137</v>
@@ -2671,13 +2672,13 @@
         <v>141</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>137</v>
@@ -2700,13 +2701,13 @@
         <v>142</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>137</v>
@@ -2729,13 +2730,13 @@
         <v>143</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>137</v>
@@ -2758,13 +2759,13 @@
         <v>113</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>137</v>
@@ -2787,13 +2788,13 @@
         <v>114</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>137</v>
@@ -2903,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2924,7 +2925,7 @@
     <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" s="36" t="s">
         <v>83</v>
       </c>
@@ -2955,7 +2956,7 @@
       <c r="K3" s="50"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
@@ -2986,8 +2987,8 @@
       <c r="K4" s="50"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="1">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -3001,18 +3002,18 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="1">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -3026,18 +3027,18 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="49" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="49" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="1">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -3051,18 +3052,18 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="1">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -3076,18 +3077,18 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="49" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="49" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -3101,18 +3102,18 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="49" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="49" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="1">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -3126,18 +3127,18 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="49" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="49" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="1">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -3151,17 +3152,17 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="49" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="49" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="1:12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3173,7 +3174,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="1:12">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3186,7 +3187,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3199,7 +3200,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3212,7 +3213,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3236,84 +3237,84 @@
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="23" t="str">
-        <f>" "&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
-        <v xml:space="preserve"> id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
+        <f>""&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;") VALUES('"</f>
+        <v>payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="23" t="str">
         <f>$C$23&amp;$C$24&amp;C25</f>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','1','1','1','','2017/08/13','','2017/08/13','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','1','1','','2017/08/13','','2017/08/13','');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
-        <v>1','1','1','1','','2017/08/13','','2017/08/13','');</v>
+        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"');"</f>
+        <v>1','1','1','','2017/08/13','','2017/08/13','');</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="23" t="str">
         <f t="shared" ref="A26:A39" si="0">$C$23&amp;$C$24&amp;C26</f>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('2','1','2','2','','2017/08/14','','2017/08/14','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','2','2','','2017/08/14','','2017/08/14','');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C31" si="1">""&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
-        <v>2','1','2','2','','2017/08/14','','2017/08/14','');</v>
+        <f t="shared" ref="C26:C31" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"');"</f>
+        <v>1','2','2','','2017/08/14','','2017/08/14','');</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('3','1','3','3','','2017/08/15','','2017/08/15','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','3','3','','2017/08/15','','2017/08/15','');</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3','1','3','3','','2017/08/15','','2017/08/15','');</v>
+        <v>1','3','3','','2017/08/15','','2017/08/15','');</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('4','1','4','4','','2017/08/16','','2017/08/16','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','4','4','','2017/08/16','','2017/08/16','');</v>
       </c>
       <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>4','1','4','4','','2017/08/16','','2017/08/16','');</v>
+        <v>1','4','4','','2017/08/16','','2017/08/16','');</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('5','1','5','5','','2017/08/17','','2017/08/17','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','5','5','','2017/08/17','','2017/08/17','');</v>
       </c>
       <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>5','1','5','5','','2017/08/17','','2017/08/17','');</v>
+        <v>1','5','5','','2017/08/17','','2017/08/17','');</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('6','1','6','6','','2017/08/18','','2017/08/18','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','6','6','','2017/08/18','','2017/08/18','');</v>
       </c>
       <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>6','1','6','6','','2017/08/18','','2017/08/18','');</v>
+        <v>1','6','6','','2017/08/18','','2017/08/18','');</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('7','1','7','7','','2017/08/19','','2017/08/19','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('1','7','7','','2017/08/19','','2017/08/19','');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>7','1','7','7','','2017/08/19','','2017/08/19','');</v>
+        <v>1','7','7','','2017/08/19','','2017/08/19','');</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" ref="C32:C39" si="2">""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"');"</f>
@@ -3323,7 +3324,7 @@
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3333,7 +3334,7 @@
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C34" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3343,7 +3344,7 @@
     <row r="35" spans="1:3" ht="18.75" customHeight="1">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C35" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3353,7 +3354,7 @@
     <row r="36" spans="1:3" ht="18.75" customHeight="1">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C36" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3363,7 +3364,7 @@
     <row r="37" spans="1:3" ht="18.75" customHeight="1">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3373,7 +3374,7 @@
     <row r="38" spans="1:3" ht="18.75" customHeight="1">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3383,7 +3384,7 @@
     <row r="39" spans="1:3" ht="18.75" customHeight="1">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_invoice( id,payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
+        <v>INSERT INTO tbl_invoice(payment_type_id,reservation_id,guest_id,tax_code,update_ymd,updater_nm,create_ymd,creater_nm) VALUES('','','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3400,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3432,10 +3433,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>158</v>
@@ -3521,7 +3522,7 @@
         <v>129</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -3538,13 +3539,13 @@
         <v>129</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N5" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O5" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -3556,7 +3557,7 @@
         <v>130</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -3573,13 +3574,13 @@
         <v>130</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -3591,7 +3592,7 @@
         <v>131</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3608,13 +3609,13 @@
         <v>131</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N7" s="49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O7" s="49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3626,7 +3627,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -3643,13 +3644,13 @@
         <v>129</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -3661,7 +3662,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -3678,13 +3679,13 @@
         <v>130</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -3696,7 +3697,7 @@
         <v>131</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -3713,13 +3714,13 @@
         <v>131</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O10" s="49" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -3731,7 +3732,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3748,13 +3749,13 @@
         <v>132</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="O11" s="49" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -3766,7 +3767,7 @@
         <v>133</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3783,13 +3784,13 @@
         <v>133</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -3801,7 +3802,7 @@
         <v>129</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -3818,13 +3819,13 @@
         <v>129</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -3836,7 +3837,7 @@
         <v>130</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -3853,13 +3854,13 @@
         <v>130</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -3871,7 +3872,7 @@
         <v>131</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3888,13 +3889,13 @@
         <v>131</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O15" s="49" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -3906,7 +3907,7 @@
         <v>132</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -3923,13 +3924,13 @@
         <v>132</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3950,147 +3951,147 @@
         <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('1','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/13','2017/08/13');</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"');"</f>
+        <f t="shared" ref="C25:C36" si="1">""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"');"</f>
         <v>1','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/13','2017/08/13');</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="23" t="str">
-        <f t="shared" ref="A26:A39" si="1">$C$23&amp;$C$24&amp;C26</f>
+        <f t="shared" ref="A26:A39" si="2">$C$23&amp;$C$24&amp;C26</f>
         <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('2','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/14','2017/08/14');</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"','"&amp;N6&amp;"','"&amp;O6&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>2','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/14','2017/08/14');</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/15','2017/08/15');</v>
+      </c>
+      <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('2','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/15','2017/08/15');</v>
-      </c>
-      <c r="C27" s="23" t="str">
-        <f>""&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"');"</f>
         <v>2','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/15','2017/08/15');</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/16','2017/08/16');</v>
+      </c>
+      <c r="C28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/16','2017/08/16');</v>
-      </c>
-      <c r="C28" s="23" t="str">
-        <f>""&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"');"</f>
         <v>3','RO001','Room','1','400000','','440000','RO001','1','','','2017/08/16','2017/08/16');</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/17','2017/08/17');</v>
+      </c>
+      <c r="C29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/17','2017/08/17');</v>
-      </c>
-      <c r="C29" s="23" t="str">
-        <f>""&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"','"&amp;G9&amp;"','"&amp;H9&amp;"','"&amp;I9&amp;"','"&amp;J9&amp;"','"&amp;K9&amp;"','"&amp;L9&amp;"','"&amp;M9&amp;"','"&amp;N9&amp;"','"&amp;O9&amp;"');"</f>
         <v>3','RO002','Room','1','400000','','440000','RO002','1','','','2017/08/17','2017/08/17');</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/18','2017/08/18');</v>
+      </c>
+      <c r="C30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('3','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/18','2017/08/18');</v>
-      </c>
-      <c r="C30" s="23" t="str">
-        <f>""&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;G10&amp;"','"&amp;H10&amp;"','"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"','"&amp;L10&amp;"','"&amp;M10&amp;"','"&amp;N10&amp;"','"&amp;O10&amp;"');"</f>
         <v>3','RO003','Room','1','400000','','440000','RO003','1','','','2017/08/18','2017/08/18');</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO004','Room','1','400000','','440000','RO004','1','','','2017/08/19','2017/08/19');</v>
+      </c>
+      <c r="C31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO004','Room','1','400000','','440000','RO004','1','','','2017/08/19','2017/08/19');</v>
-      </c>
-      <c r="C31" s="23" t="str">
-        <f>""&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"','"&amp;J11&amp;"','"&amp;K11&amp;"','"&amp;L11&amp;"','"&amp;M11&amp;"','"&amp;N11&amp;"','"&amp;O11&amp;"');"</f>
         <v>4','RO004','Room','1','400000','','440000','RO004','1','','','2017/08/19','2017/08/19');</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO005','Room','1','400000','','440000','RO005','1','','','2017/08/20','2017/08/20');</v>
+      </c>
+      <c r="C32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('4','RO005','Room','1','400000','','440000','RO005','1','','','2017/08/20','2017/08/20');</v>
-      </c>
-      <c r="C32" s="23" t="str">
-        <f>""&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"','"&amp;M12&amp;"','"&amp;N12&amp;"','"&amp;O12&amp;"');"</f>
         <v>4','RO005','Room','1','400000','','440000','RO005','1','','','2017/08/20','2017/08/20');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','330000','RO001','1','','','2017/08/21','2017/08/21');</v>
+      </c>
+      <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('5','RO001','Room','1','300000','','330000','RO001','1','','','2017/08/21','2017/08/21');</v>
-      </c>
-      <c r="C33" s="23" t="str">
-        <f>""&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"','"&amp;G13&amp;"','"&amp;H13&amp;"','"&amp;I13&amp;"','"&amp;J13&amp;"','"&amp;K13&amp;"','"&amp;L13&amp;"','"&amp;M13&amp;"','"&amp;N13&amp;"','"&amp;O13&amp;"');"</f>
         <v>5','RO001','Room','1','300000','','330000','RO001','1','','','2017/08/21','2017/08/21');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','220000','RO002','1','','','2017/08/22','2017/08/22');</v>
+      </c>
+      <c r="C34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO002','Room','1','200000','','220000','RO002','1','','','2017/08/22','2017/08/22');</v>
-      </c>
-      <c r="C34" s="23" t="str">
-        <f>""&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"','"&amp;G14&amp;"','"&amp;H14&amp;"','"&amp;I14&amp;"','"&amp;J14&amp;"','"&amp;K14&amp;"','"&amp;L14&amp;"','"&amp;M14&amp;"','"&amp;N14&amp;"','"&amp;O14&amp;"');"</f>
         <v>6','RO002','Room','1','200000','','220000','RO002','1','','','2017/08/22','2017/08/22');</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','220000','RO003','1','','','2017/08/23','2017/08/23');</v>
+      </c>
+      <c r="C35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('6','RO003','Room','1','200000','','220000','RO003','1','','','2017/08/23','2017/08/23');</v>
-      </c>
-      <c r="C35" s="23" t="str">
-        <f>""&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"','"&amp;G15&amp;"','"&amp;H15&amp;"','"&amp;I15&amp;"','"&amp;J15&amp;"','"&amp;K15&amp;"','"&amp;L15&amp;"','"&amp;M15&amp;"','"&amp;N15&amp;"','"&amp;O15&amp;"');"</f>
         <v>6','RO003','Room','1','200000','','220000','RO003','1','','','2017/08/23','2017/08/23');</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','550000','RO004','1','','','2017/08/24','2017/08/24');</v>
+      </c>
+      <c r="C36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('7','RO004','Room','1','500000','','550000','RO004','1','','','2017/08/24','2017/08/24');</v>
-      </c>
-      <c r="C36" s="23" t="str">
-        <f>""&amp;C16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"','"&amp;G16&amp;"','"&amp;H16&amp;"','"&amp;I16&amp;"','"&amp;J16&amp;"','"&amp;K16&amp;"','"&amp;L16&amp;"','"&amp;M16&amp;"','"&amp;N16&amp;"','"&amp;O16&amp;"');"</f>
         <v>7','RO004','Room','1','500000','','550000','RO004','1','','','2017/08/24','2017/08/24');</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C37" s="23" t="str">
-        <f t="shared" ref="C37:C39" si="2">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
+        <f t="shared" ref="C37:C39" si="3">""&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"','"&amp;J17&amp;"','"&amp;K17&amp;"');"</f>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C38" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>','','','','','','','','');</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tbl_invoice_detail( invoice_id,item_id,item_type,quantity,price,description,amount_total,room_id,payment_flag,creater_nm,updater_nm,update_ymd,create_ymd) VALUES('','','','','','','','','');</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>','','','','','','','','');</v>
       </c>
     </row>
@@ -5413,16 +5414,16 @@
         <v>74</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>76</v>
@@ -5480,16 +5481,16 @@
         <v>195</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H5" s="1">
         <v>400000</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -5509,16 +5510,16 @@
         <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H6" s="1">
         <v>600000</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -5538,16 +5539,16 @@
         <v>196</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H7" s="1">
         <v>700000</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -5567,16 +5568,16 @@
         <v>197</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H8" s="1">
         <v>900000</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -5708,7 +5709,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5720,7 +5721,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -5732,7 +5733,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -5744,7 +5745,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -5756,7 +5757,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5768,7 +5769,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -5780,7 +5781,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -5792,7 +5793,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -5804,7 +5805,7 @@
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -5920,7 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:A88"/>
     </sheetView>
   </sheetViews>
@@ -5980,7 +5981,7 @@
         <v>125</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>120</v>
@@ -5998,7 +5999,7 @@
         <v>125</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>120</v>
@@ -6016,13 +6017,13 @@
         <v>125</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -6034,13 +6035,13 @@
         <v>125</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -6052,13 +6053,13 @@
         <v>125</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -6070,13 +6071,13 @@
         <v>125</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -6088,13 +6089,13 @@
         <v>125</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -6106,13 +6107,13 @@
         <v>125</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -6124,13 +6125,13 @@
         <v>125</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -6142,7 +6143,7 @@
         <v>125</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>120</v>
@@ -6160,13 +6161,13 @@
         <v>126</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>211</v>
+      <c r="G15" s="34" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -6178,13 +6179,13 @@
         <v>126</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>212</v>
+      <c r="G16" s="34" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -6195,13 +6196,13 @@
         <v>126</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>217</v>
+      <c r="G17" s="34" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -6212,13 +6213,13 @@
         <v>126</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>218</v>
+      <c r="G18" s="34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -6229,13 +6230,13 @@
         <v>126</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>219</v>
+      <c r="G19" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -6246,13 +6247,13 @@
         <v>126</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>213</v>
+      <c r="G20" s="34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -6263,13 +6264,13 @@
         <v>126</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>214</v>
+      <c r="G21" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -6280,13 +6281,13 @@
         <v>126</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>215</v>
+      <c r="G22" s="34" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -6297,13 +6298,13 @@
         <v>126</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>216</v>
+      <c r="G23" s="34" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -6314,13 +6315,13 @@
         <v>126</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>220</v>
+      <c r="G24" s="34" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="3:7">
@@ -6331,340 +6332,341 @@
         <v>127</v>
       </c>
       <c r="E25" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="16.5" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E26" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="16.5" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E27" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="16.5" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="16.5" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E29" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="16.5" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E30" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="16.5" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="3:7" ht="16.5" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E32" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="16.5" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E33" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="16.5" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E34" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="16.5" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E35" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="3:7">
       <c r="C37" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="3:7">
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E38" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="3:7">
       <c r="C39" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E40" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E41" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E43" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E44" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="19"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="47" spans="3:7">
       <c r="C47" s="23" t="str">
@@ -6678,404 +6680,404 @@
         <v xml:space="preserve"> room_id,room_type_id,floor,status_id,room_number) VALUES('</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1">
       <c r="A49" s="23" t="str">
         <f>$C$47&amp;$C$48&amp;C49</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','1','RO01','P101');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO001','RT01','2','RO01','P201');</v>
       </c>
       <c r="C49" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"');"</f>
-        <v>RO001','RT01','1','RO01','P101');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO001','RT01','2','RO01','P201');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1">
       <c r="A50" s="23" t="str">
-        <f t="shared" ref="A50:A56" si="0">$C$47&amp;$C$48&amp;C50</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','1','RO01','P102');</v>
+        <f t="shared" ref="A50:A58" si="0">$C$47&amp;$C$48&amp;C50</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO002','RT01','2','RO01','P202');</v>
       </c>
       <c r="C50" s="23" t="str">
-        <f t="shared" ref="C50:C88" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
-        <v>RO002','RT01','1','RO01','P102');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" ref="C50:C58" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"');"</f>
+        <v>RO002','RT01','2','RO01','P202');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','1','RO01','P103');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO003','RT01','2','RO01','P203');</v>
       </c>
       <c r="C51" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>RO003','RT01','1','RO01','P103');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO003','RT01','2','RO01','P203');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','1','RO01','P104');</v>
+        <f t="shared" ref="A52:A88" si="2">$C$47&amp;$C$48&amp;C52</f>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO004','RT01','2','RO01','P204');</v>
       </c>
       <c r="C52" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO004','RT01','1','RO01','P104');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" ref="C52:C88" si="3">""&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"');"</f>
+        <v>RO004','RT01','2','RO01','P204');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','1','RO01','P105');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO005','RT01','2','RO01','P205');</v>
       </c>
       <c r="C53" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO005','RT01','1','RO01','P105');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO005','RT01','2','RO01','P205');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT01','1','RO01','P106');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO006','RT01','2','RO01','P206');</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO006','RT01','1','RO01','P106');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO006','RT01','2','RO01','P206');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT01','1','RO01','P107');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO007','RT01','2','RO01','P207');</v>
       </c>
       <c r="C55" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO007','RT01','1','RO01','P107');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO007','RT01','2','RO01','P207');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT01','1','RO01','P108');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO008','RT01','2','RO01','P208');</v>
       </c>
       <c r="C56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO008','RT01','1','RO01','P108');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO008','RT01','2','RO01','P208');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1">
       <c r="A57" s="23" t="str">
-        <f t="shared" ref="A57:A65" si="2">$C$47&amp;$C$48&amp;C57</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT01','1','RO01','P109');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO009','RT01','2','RO01','P209');</v>
       </c>
       <c r="C57" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO009','RT01','1','RO01','P109');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO009','RT01','2','RO01','P209');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1">
       <c r="A58" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT01','1','RO01','P110');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO010','RT01','2','RO01','P210');</v>
       </c>
       <c r="C58" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO010','RT01','1','RO01','P110');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO010','RT01','2','RO01','P210');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1">
       <c r="A59" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT02','2','RO01','P201');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO011','RT02','3','RO01','P301');</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO011','RT02','2','RO01','P201');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO011','RT02','3','RO01','P301');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1">
       <c r="A60" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT02','2','RO01','P202');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO012','RT02','3','RO01','P302');</v>
       </c>
       <c r="C60" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO012','RT02','2','RO01','P202');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO012','RT02','3','RO01','P302');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1">
       <c r="A61" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT02','2','RO01','P203');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO013','RT02','3','RO01','P303');</v>
       </c>
       <c r="C61" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO013','RT02','2','RO01','P203');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO013','RT02','3','RO01','P303');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1">
       <c r="A62" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT02','2','RO01','P204');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO014','RT02','3','RO01','P304');</v>
       </c>
       <c r="C62" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO014','RT02','2','RO01','P204');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO014','RT02','3','RO01','P304');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1">
       <c r="A63" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT02','2','RO01','P205');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO015','RT02','3','RO01','P305');</v>
       </c>
       <c r="C63" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO015','RT02','2','RO01','P205');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO015','RT02','3','RO01','P305');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1">
       <c r="A64" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT02','2','RO01','P206');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO016','RT02','3','RO01','P306');</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO016','RT02','2','RO01','P206');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO016','RT02','3','RO01','P306');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1">
       <c r="A65" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT02','2','RO01','P207');</v>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO017','RT02','3','RO01','P307');</v>
       </c>
       <c r="C65" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO017','RT02','2','RO01','P207');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO017','RT02','3','RO01','P307');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1">
       <c r="A66" s="23" t="str">
-        <f t="shared" ref="A66:A88" si="3">$C$47&amp;$C$48&amp;C66</f>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT02','2','RO01','P208');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO018','RT02','3','RO01','P308');</v>
       </c>
       <c r="C66" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO018','RT02','2','RO01','P208');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>RO018','RT02','3','RO01','P308');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1">
       <c r="A67" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT02','3','RO01','P309');</v>
+      </c>
+      <c r="C67" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO019','RT02','2','RO01','P209');</v>
-      </c>
-      <c r="C67" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO019','RT02','2','RO01','P209');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO019','RT02','3','RO01','P309');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1">
       <c r="A68" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT02','3','RO01','P310');</v>
+      </c>
+      <c r="C68" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO020','RT02','2','RO01','P210');</v>
-      </c>
-      <c r="C68" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO020','RT02','2','RO01','P210');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO020','RT02','3','RO01','P310');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1">
       <c r="A69" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT03','4','RO01','P401');</v>
+      </c>
+      <c r="C69" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO021','RT03','3','RO01','P301');</v>
-      </c>
-      <c r="C69" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO021','RT03','3','RO01','P301');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO021','RT03','4','RO01','P401');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1">
       <c r="A70" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO022','RT03','4','RO01','P402');</v>
+      </c>
+      <c r="C70" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO022','RT03','3','RO01','P302');</v>
-      </c>
-      <c r="C70" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO022','RT03','3','RO01','P302');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO022','RT03','4','RO01','P402');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1">
       <c r="A71" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO023','RT03','4','RO01','P403');</v>
+      </c>
+      <c r="C71" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO023','RT03','3','RO01','P303');</v>
-      </c>
-      <c r="C71" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO023','RT03','3','RO01','P303');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO023','RT03','4','RO01','P403');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1">
       <c r="A72" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO024','RT03','4','RO01','P404');</v>
+      </c>
+      <c r="C72" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO024','RT03','3','RO01','P304');</v>
-      </c>
-      <c r="C72" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO024','RT03','3','RO01','P304');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO024','RT03','4','RO01','P404');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1">
       <c r="A73" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO025','RT03','4','RO01','P405');</v>
+      </c>
+      <c r="C73" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO025','RT03','3','RO01','P305');</v>
-      </c>
-      <c r="C73" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO025','RT03','3','RO01','P305');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO025','RT03','4','RO01','P405');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1">
       <c r="A74" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO026','RT03','4','RO01','P406');</v>
+      </c>
+      <c r="C74" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO026','RT03','3','RO01','P306');</v>
-      </c>
-      <c r="C74" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO026','RT03','3','RO01','P306');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO026','RT03','4','RO01','P406');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1">
       <c r="A75" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO027','RT03','4','RO01','P407');</v>
+      </c>
+      <c r="C75" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO027','RT03','3','RO01','P307');</v>
-      </c>
-      <c r="C75" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO027','RT03','3','RO01','P307');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO027','RT03','4','RO01','P407');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1">
       <c r="A76" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO028','RT03','4','RO01','P408');</v>
+      </c>
+      <c r="C76" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO028','RT03','3','RO01','P308');</v>
-      </c>
-      <c r="C76" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO028','RT03','3','RO01','P308');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO028','RT03','4','RO01','P408');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1">
       <c r="A77" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO029','RT03','4','RO01','P409');</v>
+      </c>
+      <c r="C77" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO029','RT03','3','RO01','P309');</v>
-      </c>
-      <c r="C77" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO029','RT03','3','RO01','P309');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO029','RT03','4','RO01','P409');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1">
       <c r="A78" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO030','RT03','4','RO01','P410');</v>
+      </c>
+      <c r="C78" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO030','RT03','3','RO01','P310');</v>
-      </c>
-      <c r="C78" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO030','RT03','3','RO01','P310');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO030','RT03','4','RO01','P410');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1">
       <c r="A79" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO031','RT04','5','RO01','P501');</v>
+      </c>
+      <c r="C79" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO031','RT04','4','RO01','P401');</v>
-      </c>
-      <c r="C79" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO031','RT04','4','RO01','P401');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO031','RT04','5','RO01','P501');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1">
       <c r="A80" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO032','RT04','5','RO01','P502');</v>
+      </c>
+      <c r="C80" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO032','RT04','4','RO01','P402');</v>
-      </c>
-      <c r="C80" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO032','RT04','4','RO01','P402');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO032','RT04','5','RO01','P502');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" customHeight="1">
       <c r="A81" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO033','RT04','5','RO01','P503');</v>
+      </c>
+      <c r="C81" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO033','RT04','4','RO01','P403');</v>
-      </c>
-      <c r="C81" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO033','RT04','4','RO01','P403');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO033','RT04','5','RO01','P503');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1">
       <c r="A82" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO034','RT04','5','RO01','P504');</v>
+      </c>
+      <c r="C82" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO034','RT04','4','RO01','P404');</v>
-      </c>
-      <c r="C82" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO034','RT04','4','RO01','P404');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO034','RT04','5','RO01','P504');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1">
       <c r="A83" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO035','RT04','5','RO01','P505');</v>
+      </c>
+      <c r="C83" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO035','RT04','4','RO01','P405');</v>
-      </c>
-      <c r="C83" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO035','RT04','4','RO01','P405');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO035','RT04','5','RO01','P505');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1">
       <c r="A84" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO036','RT04','5','RO01','P506');</v>
+      </c>
+      <c r="C84" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO036','RT04','4','RO01','P406');</v>
-      </c>
-      <c r="C84" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO036','RT04','4','RO01','P406');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO036','RT04','5','RO01','P506');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1">
       <c r="A85" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO037','RT04','5','RO01','P507');</v>
+      </c>
+      <c r="C85" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO037','RT04','4','RO01','P407');</v>
-      </c>
-      <c r="C85" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO037','RT04','4','RO01','P407');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO037','RT04','5','RO01','P507');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1">
       <c r="A86" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO038','RT04','5','RO01','P508');</v>
+      </c>
+      <c r="C86" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO038','RT04','4','RO01','P408');</v>
-      </c>
-      <c r="C86" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO038','RT04','4','RO01','P408');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO038','RT04','5','RO01','P508');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1">
       <c r="A87" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO039','RT04','5','RO01','P509');</v>
+      </c>
+      <c r="C87" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO039','RT04','4','RO01','P409');</v>
-      </c>
-      <c r="C87" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO039','RT04','4','RO01','P409');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1">
+        <v>RO039','RT04','5','RO01','P509');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1">
       <c r="A88" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO040','RT04','5','RO01','P510');</v>
+      </c>
+      <c r="C88" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO tbl_room( room_id,room_type_id,floor,status_id,room_number) VALUES('RO040','RT04','4','RO01','P410');</v>
-      </c>
-      <c r="C88" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>RO040','RT04','4','RO01','P410');</v>
+        <v>RO040','RT04','5','RO01','P510');</v>
       </c>
     </row>
   </sheetData>
@@ -7089,7 +7091,7 @@
   <dimension ref="A3:O54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A31" sqref="A31:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7207,10 +7209,10 @@
         <v>129</v>
       </c>
       <c r="E5" s="1">
-        <v>20170825</v>
+        <v>20170831</v>
       </c>
       <c r="F5" s="1">
-        <v>20170829</v>
+        <v>20170902</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7239,10 +7241,10 @@
         <v>130</v>
       </c>
       <c r="E6" s="1">
-        <v>20170826</v>
+        <v>20170831</v>
       </c>
       <c r="F6" s="1">
-        <v>20170830</v>
+        <v>20170903</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7271,10 +7273,10 @@
         <v>131</v>
       </c>
       <c r="E7" s="1">
-        <v>20170826</v>
+        <v>20170831</v>
       </c>
       <c r="F7" s="1">
-        <v>20170830</v>
+        <v>20170903</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7753,31 +7755,31 @@
     <row r="31" spans="1:15">
       <c r="A31" s="23" t="str">
         <f>$C$29&amp;$C$30&amp;C31</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('1','RO001','20170825','20170829','','','','','','0','0','2017/08/01','2017/08/01');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('1','RO001','20170831','20170902','','','','','','0','0','2017/08/01','2017/08/01');</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>""&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"');"</f>
-        <v>1','RO001','20170825','20170829','','','','','','0','0','2017/08/01','2017/08/01');</v>
+        <v>1','RO001','20170831','20170902','','','','','','0','0','2017/08/01','2017/08/01');</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="23" t="str">
         <f t="shared" ref="A32:A43" si="0">$C$29&amp;$C$30&amp;C32</f>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO002','20170826','20170830','','','','','','0','0','2017/08/02','2017/08/02');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO002','20170831','20170903','','','','','','0','0','2017/08/02','2017/08/02');</v>
       </c>
       <c r="C32" s="23" t="str">
         <f t="shared" ref="C32:C42" si="1">""&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"','"&amp;N6&amp;"','"&amp;O6&amp;"');"</f>
-        <v>2','RO002','20170826','20170830','','','','','','0','0','2017/08/02','2017/08/02');</v>
+        <v>2','RO002','20170831','20170903','','','','','','0','0','2017/08/02','2017/08/02');</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO003','20170826','20170830','','','','','','0','0','2017/08/03','2017/08/03');</v>
+        <v>INSERT INTO tbl_reservation_detail( reservation_id,room_id,date_in,date_out,customer_name,customer_identity_card,customer_phone,customer_email,note,check_in_flag,check_out_flag,update_ymd,create_ymd) VALUES('2','RO003','20170831','20170903','','','','','','0','0','2017/08/03','2017/08/03');</v>
       </c>
       <c r="C33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>2','RO003','20170826','20170830','','','','','','0','0','2017/08/03','2017/08/03');</v>
+        <v>2','RO003','20170831','20170903','','','','','','0','0','2017/08/03','2017/08/03');</v>
       </c>
     </row>
     <row r="34" spans="1:3">
